--- a/Code/Results/Cases/Case_1_6/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_6/res_line/pl_mw.xlsx
@@ -412,13 +412,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.90625632610471</v>
+        <v>3.906256326105165</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1.020791483372903</v>
+        <v>1.020791483373102</v>
       </c>
       <c r="E2">
         <v>1.47077599070883</v>
@@ -433,13 +433,13 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.5370937815891068</v>
+        <v>0.537093781589121</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12.52263781617992</v>
+        <v>12.52263781617989</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.266991147017393</v>
+        <v>3.266991147018018</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.7888034863368318</v>
+        <v>0.7888034863366613</v>
       </c>
       <c r="E3">
-        <v>1.222978984384326</v>
+        <v>1.222978984384355</v>
       </c>
       <c r="F3">
-        <v>7.819489428455711</v>
+        <v>7.819489428455796</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -471,13 +471,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.453205167001272</v>
+        <v>0.4532051670012862</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.32885443870032</v>
+        <v>10.32885443870043</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.90863138384708</v>
+        <v>2.908631383847023</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.6724873468078272</v>
+        <v>0.6724873468079409</v>
       </c>
       <c r="E4">
-        <v>1.086214046846891</v>
+        <v>1.086214046846919</v>
       </c>
       <c r="F4">
-        <v>6.660571200406451</v>
+        <v>6.660571200406622</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,13 +509,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.4058293693140271</v>
+        <v>0.4058293693140413</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.128868164046793</v>
+        <v>9.128868164046764</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,7 +526,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.768298215070047</v>
+        <v>2.768298215069763</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -535,7 +535,7 @@
         <v>0.6292825306385907</v>
       </c>
       <c r="E5">
-        <v>1.032960116682304</v>
+        <v>1.032960116682361</v>
       </c>
       <c r="F5">
         <v>6.233274413055852</v>
@@ -547,13 +547,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.3872061389354684</v>
+        <v>0.3872061389354116</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.66381662440233</v>
+        <v>8.663816624402244</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.74528237106216</v>
+        <v>2.745282371062274</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.6223159542866199</v>
+        <v>0.6223159542865631</v>
       </c>
       <c r="E6">
-        <v>1.024239821055943</v>
+        <v>1.024239821055929</v>
       </c>
       <c r="F6">
-        <v>6.164561994006561</v>
+        <v>6.164561994006704</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.3841478320716689</v>
+        <v>0.3841478320716547</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.587784772996741</v>
+        <v>8.587784772996855</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.906718467955955</v>
+        <v>2.906718467956068</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.6718898711202144</v>
+        <v>0.6718898711202712</v>
       </c>
       <c r="E7">
-        <v>1.08548710517114</v>
+        <v>1.085487105171211</v>
       </c>
       <c r="F7">
-        <v>6.654649133943991</v>
+        <v>6.654649133944076</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,13 +623,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.4055757855886242</v>
+        <v>0.4055757855886526</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.122511557248856</v>
+        <v>9.122511557248941</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,7 +640,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.676386237496558</v>
+        <v>3.676386237496615</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -649,7 +649,7 @@
         <v>0.9333814640937987</v>
       </c>
       <c r="E8">
-        <v>1.380985885410013</v>
+        <v>1.380985885410027</v>
       </c>
       <c r="F8">
         <v>9.273192782959597</v>
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.507020269587386</v>
+        <v>0.5070202695873576</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.72493644726694</v>
+        <v>11.72493644726691</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,7 +678,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.676386237496558</v>
+        <v>3.676386237496615</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -687,7 +687,7 @@
         <v>0.9333814640937987</v>
       </c>
       <c r="E9">
-        <v>1.380985885410013</v>
+        <v>1.380985885410027</v>
       </c>
       <c r="F9">
         <v>9.273192782959597</v>
@@ -699,13 +699,13 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.507020269587386</v>
+        <v>0.5070202695873576</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>11.72493644726694</v>
+        <v>11.72493644726691</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.676386237496558</v>
+        <v>3.676386237496615</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0.9333814640937987</v>
       </c>
       <c r="E10">
-        <v>1.380985885410013</v>
+        <v>1.380985885410027</v>
       </c>
       <c r="F10">
         <v>9.273192782959597</v>
@@ -737,13 +737,13 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.507020269587386</v>
+        <v>0.5070202695873576</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>11.72493644726694</v>
+        <v>11.72493644726691</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,7 +754,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.676386237496558</v>
+        <v>3.676386237496615</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -763,7 +763,7 @@
         <v>0.9333814640937987</v>
       </c>
       <c r="E11">
-        <v>1.380985885410013</v>
+        <v>1.380985885410027</v>
       </c>
       <c r="F11">
         <v>9.273192782959597</v>
@@ -775,13 +775,13 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.507020269587386</v>
+        <v>0.5070202695873576</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>11.72493644726694</v>
+        <v>11.72493644726691</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.676386237496558</v>
+        <v>3.676386237496615</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -801,7 +801,7 @@
         <v>0.9333814640937987</v>
       </c>
       <c r="E12">
-        <v>1.380985885410013</v>
+        <v>1.380985885410027</v>
       </c>
       <c r="F12">
         <v>9.273192782959597</v>
@@ -813,13 +813,13 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.507020269587386</v>
+        <v>0.5070202695873576</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>11.72493644726694</v>
+        <v>11.72493644726691</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.676386237496558</v>
+        <v>3.676386237496615</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -839,7 +839,7 @@
         <v>0.9333814640937987</v>
       </c>
       <c r="E13">
-        <v>1.380985885410013</v>
+        <v>1.380985885410027</v>
       </c>
       <c r="F13">
         <v>9.273192782959597</v>
@@ -851,13 +851,13 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.507020269587386</v>
+        <v>0.5070202695873576</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>11.72493644726694</v>
+        <v>11.72493644726691</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.676386237496558</v>
+        <v>3.676386237496615</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0.9333814640937987</v>
       </c>
       <c r="E14">
-        <v>1.380985885410013</v>
+        <v>1.380985885410027</v>
       </c>
       <c r="F14">
         <v>9.273192782959597</v>
@@ -889,13 +889,13 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.507020269587386</v>
+        <v>0.5070202695873576</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>11.72493644726694</v>
+        <v>11.72493644726691</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,7 +906,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.676386237496558</v>
+        <v>3.676386237496615</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0.9333814640937987</v>
       </c>
       <c r="E15">
-        <v>1.380985885410013</v>
+        <v>1.380985885410027</v>
       </c>
       <c r="F15">
         <v>9.273192782959597</v>
@@ -927,13 +927,13 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.507020269587386</v>
+        <v>0.5070202695873576</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>11.72493644726694</v>
+        <v>11.72493644726691</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.676386237496558</v>
+        <v>3.676386237496615</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>0.9333814640937987</v>
       </c>
       <c r="E16">
-        <v>1.380985885410013</v>
+        <v>1.380985885410027</v>
       </c>
       <c r="F16">
         <v>9.273192782959597</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.507020269587386</v>
+        <v>0.5070202695873576</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>11.72493644726694</v>
+        <v>11.72493644726691</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,7 +982,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.676386237496558</v>
+        <v>3.676386237496615</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -991,7 +991,7 @@
         <v>0.9333814640937987</v>
       </c>
       <c r="E17">
-        <v>1.380985885410013</v>
+        <v>1.380985885410027</v>
       </c>
       <c r="F17">
         <v>9.273192782959597</v>
@@ -1003,13 +1003,13 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.507020269587386</v>
+        <v>0.5070202695873576</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>11.72493644726694</v>
+        <v>11.72493644726691</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.676386237496558</v>
+        <v>3.676386237496615</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1029,7 +1029,7 @@
         <v>0.9333814640937987</v>
       </c>
       <c r="E18">
-        <v>1.380985885410013</v>
+        <v>1.380985885410027</v>
       </c>
       <c r="F18">
         <v>9.273192782959597</v>
@@ -1041,13 +1041,13 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.507020269587386</v>
+        <v>0.5070202695873576</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>11.72493644726694</v>
+        <v>11.72493644726691</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,7 +1058,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.676386237496558</v>
+        <v>3.676386237496615</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1067,7 +1067,7 @@
         <v>0.9333814640937987</v>
       </c>
       <c r="E19">
-        <v>1.380985885410013</v>
+        <v>1.380985885410027</v>
       </c>
       <c r="F19">
         <v>9.273192782959597</v>
@@ -1079,13 +1079,13 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.507020269587386</v>
+        <v>0.5070202695873576</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>11.72493644726694</v>
+        <v>11.72493644726691</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.676386237496558</v>
+        <v>3.676386237496615</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0.9333814640937987</v>
       </c>
       <c r="E20">
-        <v>1.380985885410013</v>
+        <v>1.380985885410027</v>
       </c>
       <c r="F20">
         <v>9.273192782959597</v>
@@ -1117,13 +1117,13 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.507020269587386</v>
+        <v>0.5070202695873576</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>11.72493644726694</v>
+        <v>11.72493644726691</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.676386237496558</v>
+        <v>3.676386237496615</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1143,7 +1143,7 @@
         <v>0.9333814640937987</v>
       </c>
       <c r="E21">
-        <v>1.380985885410013</v>
+        <v>1.380985885410027</v>
       </c>
       <c r="F21">
         <v>9.273192782959597</v>
@@ -1155,13 +1155,13 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.507020269587386</v>
+        <v>0.5070202695873576</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>11.72493644726694</v>
+        <v>11.72493644726691</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,7 +1172,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.676386237496558</v>
+        <v>3.676386237496615</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0.9333814640937987</v>
       </c>
       <c r="E22">
-        <v>1.380985885410013</v>
+        <v>1.380985885410027</v>
       </c>
       <c r="F22">
         <v>9.273192782959597</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.507020269587386</v>
+        <v>0.5070202695873576</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>11.72493644726694</v>
+        <v>11.72493644726691</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,7 +1210,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.676386237496558</v>
+        <v>3.676386237496615</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1219,7 +1219,7 @@
         <v>0.9333814640937987</v>
       </c>
       <c r="E23">
-        <v>1.380985885410013</v>
+        <v>1.380985885410027</v>
       </c>
       <c r="F23">
         <v>9.273192782959597</v>
@@ -1231,13 +1231,13 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.507020269587386</v>
+        <v>0.5070202695873576</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>11.72493644726694</v>
+        <v>11.72493644726691</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,7 +1248,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.676386237496558</v>
+        <v>3.676386237496615</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0.9333814640937987</v>
       </c>
       <c r="E24">
-        <v>1.380985885410013</v>
+        <v>1.380985885410027</v>
       </c>
       <c r="F24">
         <v>9.273192782959597</v>
@@ -1269,13 +1269,13 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.507020269587386</v>
+        <v>0.5070202695873576</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>11.72493644726694</v>
+        <v>11.72493644726691</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,7 +1286,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.676386237496558</v>
+        <v>3.676386237496615</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1295,7 +1295,7 @@
         <v>0.9333814640937987</v>
       </c>
       <c r="E25">
-        <v>1.380985885410013</v>
+        <v>1.380985885410027</v>
       </c>
       <c r="F25">
         <v>9.273192782959597</v>
@@ -1307,13 +1307,13 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.507020269587386</v>
+        <v>0.5070202695873576</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.72493644726694</v>
+        <v>11.72493644726691</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_6/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_6/res_line/pl_mw.xlsx
@@ -412,13 +412,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.906256326105165</v>
+        <v>3.90625632610471</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1.020791483373102</v>
+        <v>1.020791483372903</v>
       </c>
       <c r="E2">
         <v>1.47077599070883</v>
@@ -433,13 +433,13 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.537093781589121</v>
+        <v>0.5370937815891068</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12.52263781617989</v>
+        <v>12.52263781617992</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.266991147018018</v>
+        <v>3.266991147017393</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.7888034863366613</v>
+        <v>0.7888034863368318</v>
       </c>
       <c r="E3">
-        <v>1.222978984384355</v>
+        <v>1.222978984384326</v>
       </c>
       <c r="F3">
-        <v>7.819489428455796</v>
+        <v>7.819489428455711</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -471,13 +471,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.4532051670012862</v>
+        <v>0.453205167001272</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.32885443870043</v>
+        <v>10.32885443870032</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.908631383847023</v>
+        <v>2.90863138384708</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.6724873468079409</v>
+        <v>0.6724873468078272</v>
       </c>
       <c r="E4">
-        <v>1.086214046846919</v>
+        <v>1.086214046846891</v>
       </c>
       <c r="F4">
-        <v>6.660571200406622</v>
+        <v>6.660571200406451</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,13 +509,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.4058293693140413</v>
+        <v>0.4058293693140271</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.128868164046764</v>
+        <v>9.128868164046793</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,7 +526,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.768298215069763</v>
+        <v>2.768298215070047</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -535,7 +535,7 @@
         <v>0.6292825306385907</v>
       </c>
       <c r="E5">
-        <v>1.032960116682361</v>
+        <v>1.032960116682304</v>
       </c>
       <c r="F5">
         <v>6.233274413055852</v>
@@ -547,13 +547,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.3872061389354116</v>
+        <v>0.3872061389354684</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.663816624402244</v>
+        <v>8.66381662440233</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.745282371062274</v>
+        <v>2.74528237106216</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.6223159542865631</v>
+        <v>0.6223159542866199</v>
       </c>
       <c r="E6">
-        <v>1.024239821055929</v>
+        <v>1.024239821055943</v>
       </c>
       <c r="F6">
-        <v>6.164561994006704</v>
+        <v>6.164561994006561</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.3841478320716547</v>
+        <v>0.3841478320716689</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.587784772996855</v>
+        <v>8.587784772996741</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.906718467956068</v>
+        <v>2.906718467955955</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.6718898711202712</v>
+        <v>0.6718898711202144</v>
       </c>
       <c r="E7">
-        <v>1.085487105171211</v>
+        <v>1.08548710517114</v>
       </c>
       <c r="F7">
-        <v>6.654649133944076</v>
+        <v>6.654649133943991</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,13 +623,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.4055757855886526</v>
+        <v>0.4055757855886242</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.122511557248941</v>
+        <v>9.122511557248856</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,7 +640,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.676386237496615</v>
+        <v>3.676386237496558</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -649,7 +649,7 @@
         <v>0.9333814640937987</v>
       </c>
       <c r="E8">
-        <v>1.380985885410027</v>
+        <v>1.380985885410013</v>
       </c>
       <c r="F8">
         <v>9.273192782959597</v>
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.5070202695873576</v>
+        <v>0.507020269587386</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.72493644726691</v>
+        <v>11.72493644726694</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,7 +678,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.676386237496615</v>
+        <v>3.676386237496558</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -687,7 +687,7 @@
         <v>0.9333814640937987</v>
       </c>
       <c r="E9">
-        <v>1.380985885410027</v>
+        <v>1.380985885410013</v>
       </c>
       <c r="F9">
         <v>9.273192782959597</v>
@@ -699,13 +699,13 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.5070202695873576</v>
+        <v>0.507020269587386</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>11.72493644726691</v>
+        <v>11.72493644726694</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.676386237496615</v>
+        <v>3.676386237496558</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0.9333814640937987</v>
       </c>
       <c r="E10">
-        <v>1.380985885410027</v>
+        <v>1.380985885410013</v>
       </c>
       <c r="F10">
         <v>9.273192782959597</v>
@@ -737,13 +737,13 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.5070202695873576</v>
+        <v>0.507020269587386</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>11.72493644726691</v>
+        <v>11.72493644726694</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,7 +754,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.676386237496615</v>
+        <v>3.676386237496558</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -763,7 +763,7 @@
         <v>0.9333814640937987</v>
       </c>
       <c r="E11">
-        <v>1.380985885410027</v>
+        <v>1.380985885410013</v>
       </c>
       <c r="F11">
         <v>9.273192782959597</v>
@@ -775,13 +775,13 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.5070202695873576</v>
+        <v>0.507020269587386</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>11.72493644726691</v>
+        <v>11.72493644726694</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.676386237496615</v>
+        <v>3.676386237496558</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -801,7 +801,7 @@
         <v>0.9333814640937987</v>
       </c>
       <c r="E12">
-        <v>1.380985885410027</v>
+        <v>1.380985885410013</v>
       </c>
       <c r="F12">
         <v>9.273192782959597</v>
@@ -813,13 +813,13 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.5070202695873576</v>
+        <v>0.507020269587386</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>11.72493644726691</v>
+        <v>11.72493644726694</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.676386237496615</v>
+        <v>3.676386237496558</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -839,7 +839,7 @@
         <v>0.9333814640937987</v>
       </c>
       <c r="E13">
-        <v>1.380985885410027</v>
+        <v>1.380985885410013</v>
       </c>
       <c r="F13">
         <v>9.273192782959597</v>
@@ -851,13 +851,13 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.5070202695873576</v>
+        <v>0.507020269587386</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>11.72493644726691</v>
+        <v>11.72493644726694</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.676386237496615</v>
+        <v>3.676386237496558</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0.9333814640937987</v>
       </c>
       <c r="E14">
-        <v>1.380985885410027</v>
+        <v>1.380985885410013</v>
       </c>
       <c r="F14">
         <v>9.273192782959597</v>
@@ -889,13 +889,13 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.5070202695873576</v>
+        <v>0.507020269587386</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>11.72493644726691</v>
+        <v>11.72493644726694</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,7 +906,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.676386237496615</v>
+        <v>3.676386237496558</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0.9333814640937987</v>
       </c>
       <c r="E15">
-        <v>1.380985885410027</v>
+        <v>1.380985885410013</v>
       </c>
       <c r="F15">
         <v>9.273192782959597</v>
@@ -927,13 +927,13 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.5070202695873576</v>
+        <v>0.507020269587386</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>11.72493644726691</v>
+        <v>11.72493644726694</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.676386237496615</v>
+        <v>3.676386237496558</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>0.9333814640937987</v>
       </c>
       <c r="E16">
-        <v>1.380985885410027</v>
+        <v>1.380985885410013</v>
       </c>
       <c r="F16">
         <v>9.273192782959597</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.5070202695873576</v>
+        <v>0.507020269587386</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>11.72493644726691</v>
+        <v>11.72493644726694</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,7 +982,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.676386237496615</v>
+        <v>3.676386237496558</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -991,7 +991,7 @@
         <v>0.9333814640937987</v>
       </c>
       <c r="E17">
-        <v>1.380985885410027</v>
+        <v>1.380985885410013</v>
       </c>
       <c r="F17">
         <v>9.273192782959597</v>
@@ -1003,13 +1003,13 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.5070202695873576</v>
+        <v>0.507020269587386</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>11.72493644726691</v>
+        <v>11.72493644726694</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.676386237496615</v>
+        <v>3.676386237496558</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1029,7 +1029,7 @@
         <v>0.9333814640937987</v>
       </c>
       <c r="E18">
-        <v>1.380985885410027</v>
+        <v>1.380985885410013</v>
       </c>
       <c r="F18">
         <v>9.273192782959597</v>
@@ -1041,13 +1041,13 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.5070202695873576</v>
+        <v>0.507020269587386</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>11.72493644726691</v>
+        <v>11.72493644726694</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,7 +1058,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.676386237496615</v>
+        <v>3.676386237496558</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1067,7 +1067,7 @@
         <v>0.9333814640937987</v>
       </c>
       <c r="E19">
-        <v>1.380985885410027</v>
+        <v>1.380985885410013</v>
       </c>
       <c r="F19">
         <v>9.273192782959597</v>
@@ -1079,13 +1079,13 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.5070202695873576</v>
+        <v>0.507020269587386</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>11.72493644726691</v>
+        <v>11.72493644726694</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.676386237496615</v>
+        <v>3.676386237496558</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0.9333814640937987</v>
       </c>
       <c r="E20">
-        <v>1.380985885410027</v>
+        <v>1.380985885410013</v>
       </c>
       <c r="F20">
         <v>9.273192782959597</v>
@@ -1117,13 +1117,13 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.5070202695873576</v>
+        <v>0.507020269587386</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>11.72493644726691</v>
+        <v>11.72493644726694</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.676386237496615</v>
+        <v>3.676386237496558</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1143,7 +1143,7 @@
         <v>0.9333814640937987</v>
       </c>
       <c r="E21">
-        <v>1.380985885410027</v>
+        <v>1.380985885410013</v>
       </c>
       <c r="F21">
         <v>9.273192782959597</v>
@@ -1155,13 +1155,13 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.5070202695873576</v>
+        <v>0.507020269587386</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>11.72493644726691</v>
+        <v>11.72493644726694</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,7 +1172,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.676386237496615</v>
+        <v>3.676386237496558</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0.9333814640937987</v>
       </c>
       <c r="E22">
-        <v>1.380985885410027</v>
+        <v>1.380985885410013</v>
       </c>
       <c r="F22">
         <v>9.273192782959597</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.5070202695873576</v>
+        <v>0.507020269587386</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>11.72493644726691</v>
+        <v>11.72493644726694</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,7 +1210,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.676386237496615</v>
+        <v>3.676386237496558</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1219,7 +1219,7 @@
         <v>0.9333814640937987</v>
       </c>
       <c r="E23">
-        <v>1.380985885410027</v>
+        <v>1.380985885410013</v>
       </c>
       <c r="F23">
         <v>9.273192782959597</v>
@@ -1231,13 +1231,13 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.5070202695873576</v>
+        <v>0.507020269587386</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>11.72493644726691</v>
+        <v>11.72493644726694</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,7 +1248,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.676386237496615</v>
+        <v>3.676386237496558</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0.9333814640937987</v>
       </c>
       <c r="E24">
-        <v>1.380985885410027</v>
+        <v>1.380985885410013</v>
       </c>
       <c r="F24">
         <v>9.273192782959597</v>
@@ -1269,13 +1269,13 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.5070202695873576</v>
+        <v>0.507020269587386</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>11.72493644726691</v>
+        <v>11.72493644726694</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,7 +1286,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.676386237496615</v>
+        <v>3.676386237496558</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1295,7 +1295,7 @@
         <v>0.9333814640937987</v>
       </c>
       <c r="E25">
-        <v>1.380985885410027</v>
+        <v>1.380985885410013</v>
       </c>
       <c r="F25">
         <v>9.273192782959597</v>
@@ -1307,13 +1307,13 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.5070202695873576</v>
+        <v>0.507020269587386</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.72493644726691</v>
+        <v>11.72493644726694</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_6/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_6/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.90625632610471</v>
+        <v>3.875494779517624</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1.020791483372903</v>
+        <v>0.9852309412604825</v>
       </c>
       <c r="E2">
-        <v>1.47077599070883</v>
+        <v>1.448237292899321</v>
       </c>
       <c r="F2">
-        <v>10.15714099152831</v>
+        <v>9.870574086341378</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0005623248914989848</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.5370937815891068</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.5316002691036275</v>
       </c>
       <c r="K2">
-        <v>12.52263781617992</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>12.36362757249972</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.266991147017393</v>
+        <v>3.245598417446047</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.7888034863368318</v>
+        <v>0.763334344280139</v>
       </c>
       <c r="E3">
-        <v>1.222978984384326</v>
+        <v>1.205453573850093</v>
       </c>
       <c r="F3">
-        <v>7.819489428455711</v>
+        <v>7.629300511634199</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0006067747634237397</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.453205167001272</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.4486985258213281</v>
       </c>
       <c r="K3">
-        <v>10.32885443870032</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>10.21313828040311</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.90863138384708</v>
+        <v>2.891466441302839</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.6724873468078272</v>
+        <v>0.6516232526900296</v>
       </c>
       <c r="E4">
-        <v>1.086214046846891</v>
+        <v>1.070895295517218</v>
       </c>
       <c r="F4">
-        <v>6.660571200406451</v>
+        <v>6.513900291152339</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0006317397345201917</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.4058293693140271</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.4017420404278269</v>
       </c>
       <c r="K4">
-        <v>9.128868164046793</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>9.032330602994477</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.768298215070047</v>
+        <v>2.752652920743685</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.6292825306385907</v>
+        <v>0.6100841060785172</v>
       </c>
       <c r="E5">
-        <v>1.032960116682304</v>
+        <v>1.018423824369776</v>
       </c>
       <c r="F5">
-        <v>6.233274413055852</v>
+        <v>6.102258994260097</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0006415749749829252</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.3872061389354684</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.3832644828816072</v>
       </c>
       <c r="K5">
-        <v>8.66381662440233</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>8.574107200868127</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.74528237106216</v>
+        <v>2.729880116856123</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.6223159542866199</v>
+        <v>0.6033844980311756</v>
       </c>
       <c r="E6">
-        <v>1.024239821055943</v>
+        <v>1.009828091195558</v>
       </c>
       <c r="F6">
-        <v>6.164561994006561</v>
+        <v>6.036051311256273</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0006431925615436222</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.3841478320716689</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.3802292010056973</v>
       </c>
       <c r="K6">
-        <v>8.587784772996741</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>8.499163933557071</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.906718467955955</v>
+        <v>2.889574698297054</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.6718898711202144</v>
+        <v>0.6510489432696716</v>
       </c>
       <c r="E7">
-        <v>1.08548710517114</v>
+        <v>1.070179297243271</v>
       </c>
       <c r="F7">
-        <v>6.654649133943991</v>
+        <v>6.508196287003926</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0006318735133177267</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.4055757855886242</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.401490505952772</v>
       </c>
       <c r="K7">
-        <v>9.122511557248856</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>9.026069381262488</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.676386237496558</v>
+        <v>3.649340531649216</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.9333814640937987</v>
+        <v>0.9018081770169033</v>
       </c>
       <c r="E8">
-        <v>1.380985885410013</v>
+        <v>1.360452789379792</v>
       </c>
       <c r="F8">
-        <v>9.273192782959597</v>
+        <v>9.024851761038974</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0005783386267078157</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.507020269587386</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.5019261721120216</v>
       </c>
       <c r="K8">
-        <v>11.72493644726694</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>11.58321245455824</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.676386237496558</v>
+        <v>5.924523665127879</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.9333814640937987</v>
+        <v>2.077481803019396</v>
       </c>
       <c r="E9">
-        <v>1.380985885410013</v>
+        <v>2.319034367625051</v>
       </c>
       <c r="F9">
-        <v>9.273192782959597</v>
+        <v>20.97842835197542</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0004016265520201401</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.507020269587386</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.7943692862151721</v>
       </c>
       <c r="K9">
-        <v>11.72493644726694</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>20.1920610170684</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.676386237496558</v>
+        <v>5.924523665127879</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.9333814640937987</v>
+        <v>2.077481803019396</v>
       </c>
       <c r="E10">
-        <v>1.380985885410013</v>
+        <v>2.319034367625051</v>
       </c>
       <c r="F10">
-        <v>9.273192782959597</v>
+        <v>20.97842835197542</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0004016265520201401</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.507020269587386</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.7943692862151721</v>
       </c>
       <c r="K10">
-        <v>11.72493644726694</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>20.1920610170684</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.676386237496558</v>
+        <v>5.924523665127879</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.9333814640937987</v>
+        <v>2.077481803019396</v>
       </c>
       <c r="E11">
-        <v>1.380985885410013</v>
+        <v>2.319034367625051</v>
       </c>
       <c r="F11">
-        <v>9.273192782959597</v>
+        <v>20.97842835197542</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0004016265520201401</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.507020269587386</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.7943692862151721</v>
       </c>
       <c r="K11">
-        <v>11.72493644726694</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>20.1920610170684</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.676386237496558</v>
+        <v>5.924523665127879</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.9333814640937987</v>
+        <v>2.077481803019396</v>
       </c>
       <c r="E12">
-        <v>1.380985885410013</v>
+        <v>2.319034367625051</v>
       </c>
       <c r="F12">
-        <v>9.273192782959597</v>
+        <v>20.97842835197542</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0004016265520201401</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.507020269587386</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.7943692862151721</v>
       </c>
       <c r="K12">
-        <v>11.72493644726694</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>20.1920610170684</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.676386237496558</v>
+        <v>5.924523665127879</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.9333814640937987</v>
+        <v>2.077481803019396</v>
       </c>
       <c r="E13">
-        <v>1.380985885410013</v>
+        <v>2.319034367625051</v>
       </c>
       <c r="F13">
-        <v>9.273192782959597</v>
+        <v>20.97842835197542</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0004016265520201401</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.507020269587386</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.7943692862151721</v>
       </c>
       <c r="K13">
-        <v>11.72493644726694</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>20.1920610170684</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.676386237496558</v>
+        <v>5.924523665127879</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.9333814640937987</v>
+        <v>2.077481803019396</v>
       </c>
       <c r="E14">
-        <v>1.380985885410013</v>
+        <v>2.319034367625051</v>
       </c>
       <c r="F14">
-        <v>9.273192782959597</v>
+        <v>20.97842835197542</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0004016265520201401</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.507020269587386</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.7943692862151721</v>
       </c>
       <c r="K14">
-        <v>11.72493644726694</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>20.1920610170684</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.676386237496558</v>
+        <v>5.924523665127879</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.9333814640937987</v>
+        <v>2.077481803019396</v>
       </c>
       <c r="E15">
-        <v>1.380985885410013</v>
+        <v>2.319034367625051</v>
       </c>
       <c r="F15">
-        <v>9.273192782959597</v>
+        <v>20.97842835197542</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0004016265520201401</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.507020269587386</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.7943692862151721</v>
       </c>
       <c r="K15">
-        <v>11.72493644726694</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>20.1920610170684</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.676386237496558</v>
+        <v>5.924523665127879</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.9333814640937987</v>
+        <v>2.077481803019396</v>
       </c>
       <c r="E16">
-        <v>1.380985885410013</v>
+        <v>2.319034367625051</v>
       </c>
       <c r="F16">
-        <v>9.273192782959597</v>
+        <v>20.97842835197542</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0004016265520201401</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.507020269587386</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.7943692862151721</v>
       </c>
       <c r="K16">
-        <v>11.72493644726694</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>20.1920610170684</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.676386237496558</v>
+        <v>5.924523665127879</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.9333814640937987</v>
+        <v>2.077481803019396</v>
       </c>
       <c r="E17">
-        <v>1.380985885410013</v>
+        <v>2.319034367625051</v>
       </c>
       <c r="F17">
-        <v>9.273192782959597</v>
+        <v>20.97842835197542</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0004016265520201401</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.507020269587386</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.7943692862151721</v>
       </c>
       <c r="K17">
-        <v>11.72493644726694</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>20.1920610170684</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.676386237496558</v>
+        <v>5.924523665127879</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.9333814640937987</v>
+        <v>2.077481803019396</v>
       </c>
       <c r="E18">
-        <v>1.380985885410013</v>
+        <v>2.319034367625051</v>
       </c>
       <c r="F18">
-        <v>9.273192782959597</v>
+        <v>20.97842835197542</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0004016265520201401</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.507020269587386</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.7943692862151721</v>
       </c>
       <c r="K18">
-        <v>11.72493644726694</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>20.1920610170684</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.676386237496558</v>
+        <v>5.924523665127879</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.9333814640937987</v>
+        <v>2.077481803019396</v>
       </c>
       <c r="E19">
-        <v>1.380985885410013</v>
+        <v>2.319034367625051</v>
       </c>
       <c r="F19">
-        <v>9.273192782959597</v>
+        <v>20.97842835197542</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0004016265520201401</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.507020269587386</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.7943692862151721</v>
       </c>
       <c r="K19">
-        <v>11.72493644726694</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>20.1920610170684</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.676386237496558</v>
+        <v>5.924523665127879</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.9333814640937987</v>
+        <v>2.077481803019396</v>
       </c>
       <c r="E20">
-        <v>1.380985885410013</v>
+        <v>2.319034367625051</v>
       </c>
       <c r="F20">
-        <v>9.273192782959597</v>
+        <v>20.97842835197542</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0004016265520201401</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.507020269587386</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.7943692862151721</v>
       </c>
       <c r="K20">
-        <v>11.72493644726694</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>20.1920610170684</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.676386237496558</v>
+        <v>5.924523665127879</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.9333814640937987</v>
+        <v>2.077481803019396</v>
       </c>
       <c r="E21">
-        <v>1.380985885410013</v>
+        <v>2.319034367625051</v>
       </c>
       <c r="F21">
-        <v>9.273192782959597</v>
+        <v>20.97842835197542</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0004016265520201401</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.507020269587386</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.7943692862151721</v>
       </c>
       <c r="K21">
-        <v>11.72493644726694</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>20.1920610170684</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.676386237496558</v>
+        <v>5.924523665127879</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.9333814640937987</v>
+        <v>2.077481803019396</v>
       </c>
       <c r="E22">
-        <v>1.380985885410013</v>
+        <v>2.319034367625051</v>
       </c>
       <c r="F22">
-        <v>9.273192782959597</v>
+        <v>20.97842835197542</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0004016265520201401</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.507020269587386</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.7943692862151721</v>
       </c>
       <c r="K22">
-        <v>11.72493644726694</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>20.1920610170684</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.676386237496558</v>
+        <v>5.924523665127879</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.9333814640937987</v>
+        <v>2.077481803019396</v>
       </c>
       <c r="E23">
-        <v>1.380985885410013</v>
+        <v>2.319034367625051</v>
       </c>
       <c r="F23">
-        <v>9.273192782959597</v>
+        <v>20.97842835197542</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0004016265520201401</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.507020269587386</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.7943692862151721</v>
       </c>
       <c r="K23">
-        <v>11.72493644726694</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>20.1920610170684</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.676386237496558</v>
+        <v>5.924523665127879</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.9333814640937987</v>
+        <v>2.077481803019396</v>
       </c>
       <c r="E24">
-        <v>1.380985885410013</v>
+        <v>2.319034367625051</v>
       </c>
       <c r="F24">
-        <v>9.273192782959597</v>
+        <v>20.97842835197542</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0004016265520201401</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.507020269587386</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.7943692862151721</v>
       </c>
       <c r="K24">
-        <v>11.72493644726694</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>20.1920610170684</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.676386237496558</v>
+        <v>5.924523665127879</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.9333814640937987</v>
+        <v>2.077481803019396</v>
       </c>
       <c r="E25">
-        <v>1.380985885410013</v>
+        <v>2.319034367625051</v>
       </c>
       <c r="F25">
-        <v>9.273192782959597</v>
+        <v>20.97842835197542</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0004016265520201401</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.507020269587386</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.7943692862151721</v>
       </c>
       <c r="K25">
-        <v>11.72493644726694</v>
+        <v>0</v>
       </c>
       <c r="L25">
+        <v>20.1920610170684</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_6/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_6/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,34 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.875494779517624</v>
+        <v>3.226075071475691</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9852309412604825</v>
+        <v>0.4269075948248684</v>
       </c>
       <c r="E2">
-        <v>1.448237292899321</v>
+        <v>3.120824501443707</v>
       </c>
       <c r="F2">
-        <v>9.870574086341378</v>
+        <v>8.237181027541311</v>
       </c>
       <c r="G2">
-        <v>0.0005623248914989848</v>
+        <v>0.0006575467395886081</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,39 +445,45 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.5316002691036275</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>12.36362757249972</v>
+        <v>2.417736917835725</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0.6411943756320966</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.245598417446047</v>
+        <v>2.776012232505195</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.763334344280139</v>
+        <v>0.3581611292269855</v>
       </c>
       <c r="E3">
-        <v>1.205453573850093</v>
+        <v>2.63308811901986</v>
       </c>
       <c r="F3">
-        <v>7.629300511634199</v>
+        <v>6.933857178831346</v>
       </c>
       <c r="G3">
-        <v>0.0006067747634237397</v>
+        <v>0.0006816868949613758</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -480,39 +492,45 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.4486985258213281</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.21313828040311</v>
+        <v>2.046228284805323</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0.7238314457244144</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.891466441302839</v>
+        <v>2.511198341765919</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.6516232526900296</v>
+        <v>0.3192750766934154</v>
       </c>
       <c r="E4">
-        <v>1.070895295517218</v>
+        <v>2.351223133469489</v>
       </c>
       <c r="F4">
-        <v>6.513900291152339</v>
+        <v>6.189794939501297</v>
       </c>
       <c r="G4">
-        <v>0.0006317397345201917</v>
+        <v>0.0006963390482258722</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -521,39 +539,45 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.4017420404278269</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.032330602994477</v>
+        <v>1.829229342928897</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>0.7758386196678853</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.752652920743685</v>
+        <v>2.40561356189437</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.6100841060785172</v>
+        <v>0.3040873538379998</v>
       </c>
       <c r="E5">
-        <v>1.018423824369776</v>
+        <v>2.239737880742155</v>
       </c>
       <c r="F5">
-        <v>6.102258994260097</v>
+        <v>5.897724041856463</v>
       </c>
       <c r="G5">
-        <v>0.0006415749749829252</v>
+        <v>0.0007022981890638439</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -562,39 +586,45 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3832644828816072</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>8.574107200868127</v>
+        <v>1.742988383742158</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>0.7973588526729323</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.729880116856123</v>
+        <v>2.38820772328279</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.6033844980311756</v>
+        <v>0.3016008702296347</v>
       </c>
       <c r="E6">
-        <v>1.009828091195558</v>
+        <v>2.22140420196591</v>
       </c>
       <c r="F6">
-        <v>6.036051311256273</v>
+        <v>5.849825175156099</v>
       </c>
       <c r="G6">
-        <v>0.0006431925615436222</v>
+        <v>0.0007032877543441119</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -603,39 +633,45 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3802292010056973</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>8.499163933557071</v>
+        <v>1.728785302903276</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>0.8009521801022359</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.889574698297054</v>
+        <v>2.509765616621394</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.6510489432696716</v>
+        <v>0.3190677847827459</v>
       </c>
       <c r="E7">
-        <v>1.070179297243271</v>
+        <v>2.349707119236882</v>
       </c>
       <c r="F7">
-        <v>6.508196287003926</v>
+        <v>6.185814271606347</v>
       </c>
       <c r="G7">
-        <v>0.0006318735133177267</v>
+        <v>0.0006964194275210416</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -644,39 +680,45 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.401490505952772</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.026069381262488</v>
+        <v>1.828058102298883</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0.7761275175696323</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.649340531649216</v>
+        <v>3.068111911478695</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.9018081770169033</v>
+        <v>0.4023909768597633</v>
       </c>
       <c r="E8">
-        <v>1.360452789379792</v>
+        <v>2.948266911143293</v>
       </c>
       <c r="F8">
-        <v>9.024851761038974</v>
+        <v>7.774069285724067</v>
       </c>
       <c r="G8">
-        <v>0.0005783386267078157</v>
+        <v>0.0006659270112355769</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -685,39 +727,45 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.5019261721120216</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>11.58321245455824</v>
+        <v>2.286917912891766</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0.6694308799634037</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.924523665127879</v>
+        <v>4.290957534326537</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2.077481803019396</v>
+        <v>0.6039749452084777</v>
       </c>
       <c r="E9">
-        <v>2.319034367625051</v>
+        <v>4.332814977216913</v>
       </c>
       <c r="F9">
-        <v>20.97842835197542</v>
+        <v>11.53202384996058</v>
       </c>
       <c r="G9">
-        <v>0.0004016265520201401</v>
+        <v>0.0006027227175876365</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -726,39 +774,45 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.7943692862151721</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>20.1920610170684</v>
+        <v>3.314566298377486</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0.4695147466636271</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.924523665127879</v>
+        <v>5.353008583849885</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>2.077481803019396</v>
+        <v>0.8046319295438877</v>
       </c>
       <c r="E10">
-        <v>2.319034367625051</v>
+        <v>5.658037289717555</v>
       </c>
       <c r="F10">
-        <v>20.97842835197542</v>
+        <v>15.16983706320946</v>
       </c>
       <c r="G10">
-        <v>0.0004016265520201401</v>
+        <v>0.0005491217393520791</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -767,39 +821,45 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.7943692862151721</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>20.1920610170684</v>
+        <v>4.243555736984945</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0.3258573904942104</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.924523665127879</v>
+        <v>5.915966566375801</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>2.077481803019396</v>
+        <v>0.9234895834622421</v>
       </c>
       <c r="E11">
-        <v>2.319034367625051</v>
+        <v>6.428742474677307</v>
       </c>
       <c r="F11">
-        <v>20.97842835197542</v>
+        <v>17.27884025003863</v>
       </c>
       <c r="G11">
-        <v>0.0004016265520201401</v>
+        <v>0.0005203877557760084</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -808,39 +868,45 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.7943692862151721</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>20.1920610170684</v>
+        <v>4.755395300224677</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>0.2594887287297869</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.924523665127879</v>
+        <v>6.150082488111195</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>2.077481803019396</v>
+        <v>0.9760880886076393</v>
       </c>
       <c r="E12">
-        <v>2.319034367625051</v>
+        <v>6.767606413872073</v>
       </c>
       <c r="F12">
-        <v>20.97842835197542</v>
+        <v>18.20116778656075</v>
       </c>
       <c r="G12">
-        <v>0.0004016265520201401</v>
+        <v>0.0005082577165853535</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -849,39 +915,45 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.7943692862151721</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>20.1920610170684</v>
+        <v>4.973312305977402</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0.2337740436899018</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.924523665127879</v>
+        <v>6.09843945430913</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>2.077481803019396</v>
+        <v>0.9643083210209795</v>
       </c>
       <c r="E13">
-        <v>2.319034367625051</v>
+        <v>6.691811164523244</v>
       </c>
       <c r="F13">
-        <v>20.97842835197542</v>
+        <v>17.9951999675277</v>
       </c>
       <c r="G13">
-        <v>0.0004016265520201401</v>
+        <v>0.0005109452822891992</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -890,39 +962,45 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.7943692862151721</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>20.1920610170684</v>
+        <v>4.924957955609955</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0.2393525430911989</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.924523665127879</v>
+        <v>5.934710348258534</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>2.077481803019396</v>
+        <v>0.9276266126054225</v>
       </c>
       <c r="E14">
-        <v>2.319034367625051</v>
+        <v>6.455436878171355</v>
       </c>
       <c r="F14">
-        <v>20.97842835197542</v>
+        <v>17.35163048346612</v>
       </c>
       <c r="G14">
-        <v>0.0004016265520201401</v>
+        <v>0.000519421395470055</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -931,39 +1009,45 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.7943692862151721</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>20.1920610170684</v>
+        <v>4.772723262984186</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0.2573896527613098</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.924523665127879</v>
+        <v>5.8376205983717</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>2.077481803019396</v>
+        <v>0.906330979101142</v>
       </c>
       <c r="E15">
-        <v>2.319034367625051</v>
+        <v>6.31794262502072</v>
       </c>
       <c r="F15">
-        <v>20.97842835197542</v>
+        <v>16.97649174555391</v>
       </c>
       <c r="G15">
-        <v>0.0004016265520201401</v>
+        <v>0.0005244189020425607</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -972,39 +1056,45 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.7943692862151721</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>20.1920610170684</v>
+        <v>4.683180921083363</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0.268338903994735</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.924523665127879</v>
+        <v>5.318420268350962</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>2.077481803019396</v>
+        <v>0.7976440994752068</v>
       </c>
       <c r="E16">
-        <v>2.319034367625051</v>
+        <v>5.612462813675819</v>
       </c>
       <c r="F16">
-        <v>20.97842835197542</v>
+        <v>15.04478616342749</v>
       </c>
       <c r="G16">
-        <v>0.0004016265520201401</v>
+        <v>0.0005508732763053192</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1013,39 +1103,45 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.7943692862151721</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>20.1920610170684</v>
+        <v>4.212605918161387</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0.3301481976164471</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.924523665127879</v>
+        <v>5.024530247668963</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>2.077481803019396</v>
+        <v>0.7395927587654398</v>
       </c>
       <c r="E17">
-        <v>2.319034367625051</v>
+        <v>5.232472223124148</v>
       </c>
       <c r="F17">
-        <v>20.97842835197542</v>
+        <v>14.0013938010257</v>
       </c>
       <c r="G17">
-        <v>0.0004016265520201401</v>
+        <v>0.0005657185790312975</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1054,39 +1150,45 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.7943692862151721</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>20.1920610170684</v>
+        <v>3.951693274618435</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0.3676288677057844</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.924523665127879</v>
+        <v>4.862212986166526</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>2.077481803019396</v>
+        <v>0.7084935491106421</v>
       </c>
       <c r="E18">
-        <v>2.319034367625051</v>
+        <v>5.027780573406972</v>
       </c>
       <c r="F18">
-        <v>20.97842835197542</v>
+        <v>13.43909245075884</v>
       </c>
       <c r="G18">
-        <v>0.0004016265520201401</v>
+        <v>0.0005739002288360773</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1095,39 +1197,45 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.7943692862151721</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>20.1920610170684</v>
+        <v>3.809075597108688</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0.3891281453705293</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.924523665127879</v>
+        <v>4.808251769698472</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>2.077481803019396</v>
+        <v>0.6982988404667765</v>
       </c>
       <c r="E19">
-        <v>2.319034367625051</v>
+        <v>4.960491127902856</v>
       </c>
       <c r="F19">
-        <v>20.97842835197542</v>
+        <v>13.25425420013357</v>
       </c>
       <c r="G19">
-        <v>0.0004016265520201401</v>
+        <v>0.0005766191704605037</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1136,39 +1244,45 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.7943692862151721</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>20.1920610170684</v>
+        <v>3.761882979628638</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0.3964038272796113</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.924523665127879</v>
+        <v>5.055079389852324</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>2.077481803019396</v>
+        <v>0.7455203389068004</v>
       </c>
       <c r="E20">
-        <v>2.319034367625051</v>
+        <v>5.27139310928257</v>
       </c>
       <c r="F20">
-        <v>20.97842835197542</v>
+        <v>14.10830513072119</v>
       </c>
       <c r="G20">
-        <v>0.0004016265520201401</v>
+        <v>0.0005641778119150749</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1177,39 +1291,45 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.7943692862151721</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>20.1920610170684</v>
+        <v>3.978649142823429</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>0.3636467349052825</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.924523665127879</v>
+        <v>5.982097767038908</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>2.077481803019396</v>
+        <v>0.9381418473309964</v>
       </c>
       <c r="E21">
-        <v>2.319034367625051</v>
+        <v>6.523253352159543</v>
       </c>
       <c r="F21">
-        <v>20.97842835197542</v>
+        <v>17.53645536168864</v>
       </c>
       <c r="G21">
-        <v>0.0004016265520201401</v>
+        <v>0.0005169747676799752</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1218,39 +1338,45 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.7943692862151721</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>20.1920610170684</v>
+        <v>4.816621205186493</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>0.2521142178876712</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.924523665127879</v>
+        <v>6.729474018032363</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>2.077481803019396</v>
+        <v>1.116085768777225</v>
       </c>
       <c r="E22">
-        <v>2.319034367625051</v>
+        <v>7.665150481187254</v>
       </c>
       <c r="F22">
-        <v>20.97842835197542</v>
+        <v>20.62213073634194</v>
       </c>
       <c r="G22">
-        <v>0.0004016265520201401</v>
+        <v>0.000477506906149824</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1259,39 +1385,45 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.7943692862151721</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>20.1920610170684</v>
+        <v>5.528435710405176</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>0.174793680002713</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.924523665127879</v>
+        <v>6.309525677912404</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>2.077481803019396</v>
+        <v>1.013128882825185</v>
       </c>
       <c r="E23">
-        <v>2.319034367625051</v>
+        <v>7.005621769899591</v>
       </c>
       <c r="F23">
-        <v>20.97842835197542</v>
+        <v>18.84656720184972</v>
       </c>
       <c r="G23">
-        <v>0.0004016265520201401</v>
+        <v>0.000499912052994683</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1300,39 +1432,45 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.7943692862151721</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>20.1920610170684</v>
+        <v>5.123683192695239</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>0.2168841838795394</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.924523665127879</v>
+        <v>5.04124794365265</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>2.077481803019396</v>
+        <v>0.7428335867489864</v>
       </c>
       <c r="E24">
-        <v>2.319034367625051</v>
+        <v>5.253755305252582</v>
       </c>
       <c r="F24">
-        <v>20.97842835197542</v>
+        <v>14.05985667135496</v>
       </c>
       <c r="G24">
-        <v>0.0004016265520201401</v>
+        <v>0.0005648754591229925</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1341,39 +1479,45 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.7943692862151721</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>20.1920610170684</v>
+        <v>3.966440002196975</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>0.3654471870625198</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.924523665127879</v>
+        <v>3.940064338166678</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>2.077481803019396</v>
+        <v>0.5432427829917401</v>
       </c>
       <c r="E25">
-        <v>2.319034367625051</v>
+        <v>3.922894399925809</v>
       </c>
       <c r="F25">
-        <v>20.97842835197542</v>
+        <v>10.41134182005339</v>
       </c>
       <c r="G25">
-        <v>0.0004016265520201401</v>
+        <v>0.0006205536868934756</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1382,15 +1526,21 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.7943692862151721</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>20.1920610170684</v>
+        <v>3.015845881225971</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0.5227512959899467</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_6/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_6/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.226075071475691</v>
+        <v>0.5793654039437683</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.4269075948248684</v>
+        <v>0.1766640848811818</v>
       </c>
       <c r="E2">
-        <v>3.120824501443707</v>
+        <v>1.765433349908136</v>
       </c>
       <c r="F2">
-        <v>8.237181027541311</v>
+        <v>5.08508805273766</v>
       </c>
       <c r="G2">
-        <v>0.0006575467395886081</v>
+        <v>6.047613846318768</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2.855195282128705</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.4951129138725179</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>2.417736917835725</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.6411943756320966</v>
+        <v>3.037635430282819</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.776012232505195</v>
+        <v>0.5052132088301562</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.3581611292269855</v>
+        <v>0.1481600608387623</v>
       </c>
       <c r="E3">
-        <v>2.63308811901986</v>
+        <v>1.477819511624602</v>
       </c>
       <c r="F3">
-        <v>6.933857178831346</v>
+        <v>4.299387531526605</v>
       </c>
       <c r="G3">
-        <v>0.0006816868949613758</v>
+        <v>5.107744382705221</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2.417775887462483</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.4584487682843417</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>2.046228284805323</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7238314457244144</v>
+        <v>2.737299696658567</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.511198341765919</v>
+        <v>0.4595565776571675</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.3192750766934154</v>
+        <v>0.1316666761483134</v>
       </c>
       <c r="E4">
-        <v>2.351223133469489</v>
+        <v>1.311801910483425</v>
       </c>
       <c r="F4">
-        <v>6.189794939501297</v>
+        <v>3.839723242350004</v>
       </c>
       <c r="G4">
-        <v>0.0006963390482258722</v>
+        <v>4.557876019152104</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2.162425671209206</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.4362154386401045</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1.829229342928897</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7758386196678853</v>
+        <v>2.5530864410552</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.40561356189437</v>
+        <v>0.4409186727191212</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.3040873538379998</v>
+        <v>0.1251451355864077</v>
       </c>
       <c r="E5">
-        <v>2.239737880742155</v>
+        <v>1.246240096146465</v>
       </c>
       <c r="F5">
-        <v>5.897724041856463</v>
+        <v>3.656993775845223</v>
       </c>
       <c r="G5">
-        <v>0.0007022981890638439</v>
+        <v>4.339267670826246</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.061043229932068</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.4272251559504312</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>1.742988383742158</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7973588526729323</v>
+        <v>2.478069448651979</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.38820772328279</v>
+        <v>0.4378218885599239</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.3016008702296347</v>
+        <v>0.1240729425005043</v>
       </c>
       <c r="E6">
-        <v>2.22140420196591</v>
+        <v>1.235465716026766</v>
       </c>
       <c r="F6">
-        <v>5.849825175156099</v>
+        <v>3.626899869878883</v>
       </c>
       <c r="G6">
-        <v>0.0007032877543441119</v>
+        <v>4.303263164096279</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2.044353751884842</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.4257365520943779</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1.728785302903276</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8009521801022359</v>
+        <v>2.465616123913208</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.509765616621394</v>
+        <v>0.4593053524216657</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.3190677847827459</v>
+        <v>0.1315779786119862</v>
       </c>
       <c r="E7">
-        <v>2.349707119236882</v>
+        <v>1.31090990958262</v>
       </c>
       <c r="F7">
-        <v>6.185814271606347</v>
+        <v>3.837241647402038</v>
       </c>
       <c r="G7">
-        <v>0.0006964194275210416</v>
+        <v>4.554907267146746</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2.161048325781394</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.4360939092483918</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1.828058102298883</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7761275175696323</v>
+        <v>2.552074523768425</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.068111911478695</v>
+        <v>0.5538236746775169</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.4023909768597633</v>
+        <v>0.1665900476820923</v>
       </c>
       <c r="E8">
-        <v>2.948266911143293</v>
+        <v>1.663681052406318</v>
       </c>
       <c r="F8">
-        <v>7.774069285724067</v>
+        <v>4.808690486004821</v>
       </c>
       <c r="G8">
-        <v>0.0006659270112355769</v>
+        <v>5.716971371056786</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2.7011891453933</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.482413211279848</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>2.286917912891766</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6694308799634037</v>
+        <v>2.934040714684301</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.290957534326537</v>
+        <v>0.7382065226404109</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.6039749452084777</v>
+        <v>0.2466043174925545</v>
       </c>
       <c r="E9">
-        <v>4.332814977216913</v>
+        <v>2.475205393489546</v>
       </c>
       <c r="F9">
-        <v>11.53202384996058</v>
+        <v>6.963220771646007</v>
       </c>
       <c r="G9">
-        <v>0.0006027227175876365</v>
+        <v>8.295420152117913</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>3.90495917267657</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.5754683679897212</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>3.314566298377486</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.4695147466636271</v>
+        <v>3.684562022066615</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.353008583849885</v>
+        <v>0.873158726720078</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.8046319295438877</v>
+        <v>0.3195780394053429</v>
       </c>
       <c r="E10">
-        <v>5.658037289717555</v>
+        <v>3.223342820008256</v>
       </c>
       <c r="F10">
-        <v>15.16983706320946</v>
+        <v>8.842406559566115</v>
       </c>
       <c r="G10">
-        <v>0.0005491217393520791</v>
+        <v>10.54794552903911</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>4.960488211714448</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.6452217692005178</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>4.243555736984945</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.3258573904942104</v>
+        <v>4.236894622658752</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.915966566375801</v>
+        <v>0.934459987492005</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.9234895834622421</v>
+        <v>0.3589593210580091</v>
       </c>
       <c r="E11">
-        <v>6.428742474677307</v>
+        <v>3.631288591487376</v>
       </c>
       <c r="F11">
-        <v>17.27884025003863</v>
+        <v>9.820535537072118</v>
       </c>
       <c r="G11">
-        <v>0.0005203877557760084</v>
+        <v>11.7224099143383</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>5.511853027748941</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.677263932932668</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>4.755395300224677</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.2594887287297869</v>
+        <v>4.488382904391415</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.150082488111195</v>
+        <v>0.9576618370859933</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.9760880886076393</v>
+        <v>0.3752633481810648</v>
       </c>
       <c r="E12">
-        <v>6.767606413872073</v>
+        <v>3.801232012380837</v>
       </c>
       <c r="F12">
-        <v>18.20116778656075</v>
+        <v>10.2178483775096</v>
       </c>
       <c r="G12">
-        <v>0.0005082577165853535</v>
+        <v>12.19995119539351</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>5.736200930869416</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.6894428311920322</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>4.973312305977402</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.2337740436899018</v>
+        <v>4.583648715502079</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.09843945430913</v>
+        <v>0.9526653991390504</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.9643083210209795</v>
+        <v>0.3716779563503252</v>
       </c>
       <c r="E13">
-        <v>6.691811164523244</v>
+        <v>3.763802681089203</v>
       </c>
       <c r="F13">
-        <v>17.9951999675277</v>
+        <v>10.13086452675722</v>
       </c>
       <c r="G13">
-        <v>0.0005109452822891992</v>
+        <v>12.09537757619216</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.687065115623739</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.6868178671705749</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>4.924957955609955</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.2393525430911989</v>
+        <v>4.563130066385042</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.934710348258534</v>
+        <v>0.9363690428267546</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.9276266126054225</v>
+        <v>0.3602685749412018</v>
       </c>
       <c r="E14">
-        <v>6.455436878171355</v>
+        <v>3.644911226198758</v>
       </c>
       <c r="F14">
-        <v>17.35163048346612</v>
+        <v>9.852607558786332</v>
       </c>
       <c r="G14">
-        <v>0.000519421395470055</v>
+        <v>11.76094733936554</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>5.529954588443388</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.6782649886335221</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>4.772723262984186</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.2573896527613098</v>
+        <v>4.496219825738649</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.8376205983717</v>
+        <v>0.9263855807040215</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.906330979101142</v>
+        <v>0.3534821868334035</v>
       </c>
       <c r="E15">
-        <v>6.31794262502072</v>
+        <v>3.574343968424941</v>
       </c>
       <c r="F15">
-        <v>16.97649174555391</v>
+        <v>9.686051262822446</v>
       </c>
       <c r="G15">
-        <v>0.0005244189020425607</v>
+        <v>11.56083503363419</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>5.435965475903515</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.6730320097669278</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>4.683180921083363</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.268338903994735</v>
+        <v>4.455239622433453</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.318420268350962</v>
+        <v>0.8691508517122486</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.7976440994752068</v>
+        <v>0.3171644564791052</v>
       </c>
       <c r="E16">
-        <v>5.612462813675819</v>
+        <v>3.198447313802191</v>
       </c>
       <c r="F16">
-        <v>15.04478616342749</v>
+        <v>8.781623231144181</v>
       </c>
       <c r="G16">
-        <v>0.0005508732763053192</v>
+        <v>10.47501223004031</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>4.926269183172565</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.643134037803712</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>4.212605918161387</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.3301481976164471</v>
+        <v>4.220463849171011</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.024530247668963</v>
+        <v>0.8340171836811408</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.7395927587654398</v>
+        <v>0.2967338190699991</v>
       </c>
       <c r="E17">
-        <v>5.232472223124148</v>
+        <v>2.988156594715903</v>
       </c>
       <c r="F17">
-        <v>14.0013938010257</v>
+        <v>8.263294218223649</v>
       </c>
       <c r="G17">
-        <v>0.0005657185790312975</v>
+        <v>9.853293898477773</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>4.634675878376925</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.6248725872898859</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>3.951693274618435</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.3676288677057844</v>
+        <v>4.076494888478578</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.862212986166526</v>
+        <v>0.8138007528256423</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.7084935491106421</v>
+        <v>0.2855233700842774</v>
       </c>
       <c r="E18">
-        <v>5.027780573406972</v>
+        <v>2.873090059639537</v>
       </c>
       <c r="F18">
-        <v>13.43909245075884</v>
+        <v>7.976016237963222</v>
       </c>
       <c r="G18">
-        <v>0.0005739002288360773</v>
+        <v>9.508873390782639</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.473224940678961</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.6143983206426071</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>3.809075597108688</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.3891281453705293</v>
+        <v>3.993709333444571</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.808251769698472</v>
+        <v>0.8069543263252115</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.6982988404667765</v>
+        <v>0.2818100701235551</v>
       </c>
       <c r="E19">
-        <v>4.960491127902856</v>
+        <v>2.83502347741215</v>
       </c>
       <c r="F19">
-        <v>13.25425420013357</v>
+        <v>7.880415980618352</v>
       </c>
       <c r="G19">
-        <v>0.0005766191704605037</v>
+        <v>9.394281011980468</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>4.41952296081945</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.610856921260428</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>3.761882979628638</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.3964038272796113</v>
+        <v>3.965683291769437</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.055079389852324</v>
+        <v>0.8377580912796532</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.7455203389068004</v>
+        <v>0.2988500988087708</v>
       </c>
       <c r="E20">
-        <v>5.27139310928257</v>
+        <v>3.009903403381969</v>
       </c>
       <c r="F20">
-        <v>14.10830513072119</v>
+        <v>8.317299007354535</v>
       </c>
       <c r="G20">
-        <v>0.0005641778119150749</v>
+        <v>9.918053123684388</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>4.665039568894372</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.6268135205769454</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>3.978649142823429</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.3636467349052825</v>
+        <v>4.091818400229187</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.982097767038908</v>
+        <v>0.9411559823937239</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.9381418473309964</v>
+        <v>0.3635761746694754</v>
       </c>
       <c r="E21">
-        <v>6.523253352159543</v>
+        <v>3.679344923286408</v>
       </c>
       <c r="F21">
-        <v>17.53645536168864</v>
+        <v>9.933502499803353</v>
       </c>
       <c r="G21">
-        <v>0.0005169747676799752</v>
+        <v>11.85815821520242</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>5.575618452073968</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.6807759445216846</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>4.816621205186493</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.2521142178876712</v>
+        <v>4.515872099351498</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.729474018032363</v>
+        <v>1.008665481205696</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1.116085768777225</v>
+        <v>0.414578378602755</v>
       </c>
       <c r="E22">
-        <v>7.665150481187254</v>
+        <v>4.213978699760389</v>
       </c>
       <c r="F22">
-        <v>20.62213073634194</v>
+        <v>11.15708772985096</v>
       </c>
       <c r="G22">
-        <v>0.000477506906149824</v>
+        <v>13.33009481252668</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>6.267461421372843</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.7163074138430829</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>5.528435710405176</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.174793680002713</v>
+        <v>4.793206235152638</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.309525677912404</v>
+        <v>0.9726400862101627</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1.013128882825185</v>
+        <v>0.3862748291460463</v>
       </c>
       <c r="E23">
-        <v>7.005621769899591</v>
+        <v>3.916396440104663</v>
       </c>
       <c r="F23">
-        <v>18.84656720184972</v>
+        <v>10.48361503380991</v>
       </c>
       <c r="G23">
-        <v>0.000499912052994683</v>
+        <v>12.51955203874002</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>5.886395699561092</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.6973192642933483</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>5.123683192695239</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.2168841838795394</v>
+        <v>4.645170341327685</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.04124794365265</v>
+        <v>0.8360668819177306</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.7428335867489864</v>
+        <v>0.2978916929191939</v>
       </c>
       <c r="E24">
-        <v>5.253755305252582</v>
+        <v>3.000053865226164</v>
       </c>
       <c r="F24">
-        <v>14.05985667135496</v>
+        <v>8.292850652779435</v>
       </c>
       <c r="G24">
-        <v>0.0005648754591229925</v>
+        <v>9.88873566483602</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>4.651293205077309</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.6259359484111684</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>3.966440002196975</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.3654471870625198</v>
+        <v>4.084890690002339</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.940064338166678</v>
+        <v>0.6884222602584771</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.5432427829917401</v>
+        <v>0.2231678415244431</v>
       </c>
       <c r="E25">
-        <v>3.922894399925809</v>
+        <v>2.236674442812131</v>
       </c>
       <c r="F25">
-        <v>10.41134182005339</v>
+        <v>6.342005216931426</v>
       </c>
       <c r="G25">
-        <v>0.0006205536868934756</v>
+        <v>7.551648860852879</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>3.55713584585601</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.5500536194376906</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>3.015845881225971</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.5227512959899467</v>
+        <v>3.481366830697027</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_6/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_6/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5793654039437683</v>
+        <v>0.2159311196958242</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1766640848811818</v>
+        <v>0.04416460176246062</v>
       </c>
       <c r="E2">
-        <v>1.765433349908136</v>
+        <v>0.4396191691992186</v>
       </c>
       <c r="F2">
-        <v>5.08508805273766</v>
+        <v>1.528290297222981</v>
       </c>
       <c r="G2">
-        <v>6.047613846318768</v>
+        <v>1.673767081463382</v>
       </c>
       <c r="H2">
-        <v>2.855195282128705</v>
+        <v>1.010542361786406</v>
       </c>
       <c r="I2">
-        <v>0.4951129138725179</v>
+        <v>0.3757315010515043</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>3.037635430282819</v>
+        <v>1.538965158849294</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5052132088301562</v>
+        <v>0.1913949238933697</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1481600608387623</v>
+        <v>0.03830832642090343</v>
       </c>
       <c r="E3">
-        <v>1.477819511624602</v>
+        <v>0.3823479279035951</v>
       </c>
       <c r="F3">
-        <v>4.299387531526605</v>
+        <v>1.363286054659909</v>
       </c>
       <c r="G3">
-        <v>5.107744382705221</v>
+        <v>1.472460773835678</v>
       </c>
       <c r="H3">
-        <v>2.417775887462483</v>
+        <v>0.9231199012414208</v>
       </c>
       <c r="I3">
-        <v>0.4584487682843417</v>
+        <v>0.3656238581545637</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.737299696658567</v>
+        <v>1.440536212657179</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4595565776571675</v>
+        <v>0.1762869034279646</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1316666761483134</v>
+        <v>0.03472637085036467</v>
       </c>
       <c r="E4">
-        <v>1.311801910483425</v>
+        <v>0.3474053453013823</v>
       </c>
       <c r="F4">
-        <v>3.839723242350004</v>
+        <v>1.262945067803372</v>
       </c>
       <c r="G4">
-        <v>4.557876019152104</v>
+        <v>1.349747030403535</v>
       </c>
       <c r="H4">
-        <v>2.162425671209206</v>
+        <v>0.8702008080870769</v>
       </c>
       <c r="I4">
-        <v>0.4362154386401045</v>
+        <v>0.3596127975951688</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.5530864410552</v>
+        <v>1.380350891855613</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4409186727191212</v>
+        <v>0.1701201473110672</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1251451355864077</v>
+        <v>0.03326964694228707</v>
       </c>
       <c r="E5">
-        <v>1.246240096146465</v>
+        <v>0.333216280922386</v>
       </c>
       <c r="F5">
-        <v>3.656993775845223</v>
+        <v>1.222288067622259</v>
       </c>
       <c r="G5">
-        <v>4.339267670826246</v>
+        <v>1.299949458491369</v>
       </c>
       <c r="H5">
-        <v>2.061043229932068</v>
+        <v>0.8488200623750686</v>
       </c>
       <c r="I5">
-        <v>0.4272251559504312</v>
+        <v>0.3572128864356259</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.478069448651979</v>
+        <v>1.3558914054328</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4378218885599239</v>
+        <v>0.1690955695420513</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1240729425005043</v>
+        <v>0.03302792226286044</v>
       </c>
       <c r="E6">
-        <v>1.235465716026766</v>
+        <v>0.3308630769826664</v>
       </c>
       <c r="F6">
-        <v>3.626899869878883</v>
+        <v>1.215550724464379</v>
       </c>
       <c r="G6">
-        <v>4.303263164096279</v>
+        <v>1.291692836908965</v>
       </c>
       <c r="H6">
-        <v>2.044353751884842</v>
+        <v>0.8452807431618226</v>
       </c>
       <c r="I6">
-        <v>0.4257365520943779</v>
+        <v>0.3568173988916286</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.465616123913208</v>
+        <v>1.351834048475041</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4593053524216657</v>
+        <v>0.1762037765289648</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1315779786119862</v>
+        <v>0.03470671369345268</v>
       </c>
       <c r="E7">
-        <v>1.31090990958262</v>
+        <v>0.3472137901143384</v>
       </c>
       <c r="F7">
-        <v>3.837241647402038</v>
+        <v>1.262395826126067</v>
       </c>
       <c r="G7">
-        <v>4.554907267146746</v>
+        <v>1.349074614279345</v>
       </c>
       <c r="H7">
-        <v>2.161048325781394</v>
+        <v>0.8699117225502562</v>
       </c>
       <c r="I7">
-        <v>0.4360939092483918</v>
+        <v>0.359580229755295</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.552074523768425</v>
+        <v>1.380020748618335</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5538236746775169</v>
+        <v>0.2074802658006831</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1665900476820923</v>
+        <v>0.04214216942487781</v>
       </c>
       <c r="E8">
-        <v>1.663681052406318</v>
+        <v>0.4198225367166089</v>
       </c>
       <c r="F8">
-        <v>4.808690486004821</v>
+        <v>1.47118785694326</v>
       </c>
       <c r="G8">
-        <v>5.716971371056786</v>
+        <v>1.604163365212003</v>
       </c>
       <c r="H8">
-        <v>2.7011891453933</v>
+        <v>0.98023762357343</v>
       </c>
       <c r="I8">
-        <v>0.482413211279848</v>
+        <v>0.3722062484302171</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.934040714684301</v>
+        <v>1.504976964631908</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7382065226404109</v>
+        <v>0.2684501888307409</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2466043174925545</v>
+        <v>0.05685744970638495</v>
       </c>
       <c r="E9">
-        <v>2.475205393489546</v>
+        <v>0.5642327170640442</v>
       </c>
       <c r="F9">
-        <v>6.963220771646007</v>
+        <v>1.888902018709359</v>
       </c>
       <c r="G9">
-        <v>8.295420152117913</v>
+        <v>2.112127782647462</v>
       </c>
       <c r="H9">
-        <v>3.90495917267657</v>
+        <v>1.202918706961327</v>
       </c>
       <c r="I9">
-        <v>0.5754683679897212</v>
+        <v>0.3984893586954925</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>3.684562022066615</v>
+        <v>1.75186015072677</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.873158726720078</v>
+        <v>0.3129948669848943</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.3195780394053429</v>
+        <v>0.06778656051733378</v>
       </c>
       <c r="E10">
-        <v>3.223342820008256</v>
+        <v>0.6719446234360191</v>
       </c>
       <c r="F10">
-        <v>8.842406559566115</v>
+        <v>2.201659492699889</v>
       </c>
       <c r="G10">
-        <v>10.54794552903911</v>
+        <v>2.491042104895939</v>
       </c>
       <c r="H10">
-        <v>4.960488211714448</v>
+        <v>1.370841485233257</v>
       </c>
       <c r="I10">
-        <v>0.6452217692005178</v>
+        <v>0.4186982167615625</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>4.236894622658752</v>
+        <v>1.93419659562025</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.934459987492005</v>
+        <v>0.3331993617551348</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.3589593210580091</v>
+        <v>0.07279217337988086</v>
       </c>
       <c r="E11">
-        <v>3.631288591487376</v>
+        <v>0.7213816670721798</v>
       </c>
       <c r="F11">
-        <v>9.820535537072118</v>
+        <v>2.345399064368451</v>
       </c>
       <c r="G11">
-        <v>11.7224099143383</v>
+        <v>2.664885521213535</v>
       </c>
       <c r="H11">
-        <v>5.511853027748941</v>
+        <v>1.44827547428082</v>
       </c>
       <c r="I11">
-        <v>0.677263932932668</v>
+        <v>0.4280806917633271</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>4.488382904391415</v>
+        <v>2.017317443662478</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9576618370859933</v>
+        <v>0.3408412057246721</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.3752633481810648</v>
+        <v>0.07469321267035411</v>
       </c>
       <c r="E12">
-        <v>3.801232012380837</v>
+        <v>0.7401723167001393</v>
       </c>
       <c r="F12">
-        <v>10.2178483775096</v>
+        <v>2.400055170825851</v>
       </c>
       <c r="G12">
-        <v>12.19995119539351</v>
+        <v>2.730945692543116</v>
       </c>
       <c r="H12">
-        <v>5.736200930869416</v>
+        <v>1.477756451588164</v>
       </c>
       <c r="I12">
-        <v>0.6894428311920322</v>
+        <v>0.431660259156402</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>4.583648715502079</v>
+        <v>2.048815004509208</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.9526653991390504</v>
+        <v>0.3391958157675106</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.3716779563503252</v>
+        <v>0.0742835337146488</v>
       </c>
       <c r="E13">
-        <v>3.763802681089203</v>
+        <v>0.7361221926845474</v>
       </c>
       <c r="F13">
-        <v>10.13086452675722</v>
+        <v>2.388273756458403</v>
       </c>
       <c r="G13">
-        <v>12.09537757619216</v>
+        <v>2.71670796254466</v>
       </c>
       <c r="H13">
-        <v>5.687065115623739</v>
+        <v>1.471400018306724</v>
       </c>
       <c r="I13">
-        <v>0.6868178671705749</v>
+        <v>0.4308881605543888</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>4.563130066385042</v>
+        <v>2.042030543333738</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9363690428267546</v>
+        <v>0.333828248206629</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.3602685749412018</v>
+        <v>0.0729484585700817</v>
       </c>
       <c r="E14">
-        <v>3.644911226198758</v>
+        <v>0.7229261437163217</v>
       </c>
       <c r="F14">
-        <v>9.852607558786332</v>
+        <v>2.349891060477688</v>
       </c>
       <c r="G14">
-        <v>11.76094733936554</v>
+        <v>2.670315630292464</v>
       </c>
       <c r="H14">
-        <v>5.529954588443388</v>
+        <v>1.450697669861711</v>
       </c>
       <c r="I14">
-        <v>0.6782649886335221</v>
+        <v>0.4283746547068858</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>4.496219825738649</v>
+        <v>2.01990835705044</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9263855807040215</v>
+        <v>0.3305392456624361</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.3534821868334035</v>
+        <v>0.07213142522000737</v>
       </c>
       <c r="E15">
-        <v>3.574343968424941</v>
+        <v>0.7148524956228215</v>
       </c>
       <c r="F15">
-        <v>9.686051262822446</v>
+        <v>2.326410295331868</v>
       </c>
       <c r="G15">
-        <v>11.56083503363419</v>
+        <v>2.641929398215893</v>
       </c>
       <c r="H15">
-        <v>5.435965475903515</v>
+        <v>1.438037758433723</v>
       </c>
       <c r="I15">
-        <v>0.6730320097669278</v>
+        <v>0.4268385096919047</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>4.455239622433453</v>
+        <v>2.006360570313319</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.8691508517122486</v>
+        <v>0.3116732098856687</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.3171644564791052</v>
+        <v>0.06746016902452823</v>
       </c>
       <c r="E16">
-        <v>3.198447313802191</v>
+        <v>0.6687232001523142</v>
       </c>
       <c r="F16">
-        <v>8.781623231144181</v>
+        <v>2.192296469740057</v>
       </c>
       <c r="G16">
-        <v>10.47501223004031</v>
+        <v>2.479712166869206</v>
       </c>
       <c r="H16">
-        <v>4.926269183172565</v>
+        <v>1.365802710240757</v>
       </c>
       <c r="I16">
-        <v>0.643134037803712</v>
+        <v>0.4180888088535966</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>4.220463849171011</v>
+        <v>1.928767661017844</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.8340171836811408</v>
+        <v>0.3000838993120851</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.2967338190699991</v>
+        <v>0.06460364233217319</v>
       </c>
       <c r="E17">
-        <v>2.988156594715903</v>
+        <v>0.6405414693056741</v>
       </c>
       <c r="F17">
-        <v>8.263294218223649</v>
+        <v>2.110407240501445</v>
       </c>
       <c r="G17">
-        <v>9.853293898477773</v>
+        <v>2.38058685249996</v>
       </c>
       <c r="H17">
-        <v>4.634675878376925</v>
+        <v>1.321762217021217</v>
       </c>
       <c r="I17">
-        <v>0.6248725872898859</v>
+        <v>0.4127692216154415</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>4.076494888478578</v>
+        <v>1.881209144293734</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8138007528256423</v>
+        <v>0.2934125106845613</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.2855233700842774</v>
+        <v>0.06296379515380579</v>
       </c>
       <c r="E18">
-        <v>2.873090059639537</v>
+        <v>0.6243729184997164</v>
       </c>
       <c r="F18">
-        <v>7.976016237963222</v>
+        <v>2.063443689084153</v>
       </c>
       <c r="G18">
-        <v>9.508873390782639</v>
+        <v>2.323710192705676</v>
       </c>
       <c r="H18">
-        <v>4.473224940678961</v>
+        <v>1.2965291561203</v>
       </c>
       <c r="I18">
-        <v>0.6143983206426071</v>
+        <v>0.4097273953840102</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>3.993709333444571</v>
+        <v>1.85387144156806</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8069543263252115</v>
+        <v>0.2911527646054139</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.2818100701235551</v>
+        <v>0.06240909297251562</v>
       </c>
       <c r="E19">
-        <v>2.83502347741215</v>
+        <v>0.6189053326469747</v>
       </c>
       <c r="F19">
-        <v>7.880415980618352</v>
+        <v>2.047565729167701</v>
       </c>
       <c r="G19">
-        <v>9.394281011980468</v>
+        <v>2.304475839262807</v>
       </c>
       <c r="H19">
-        <v>4.41952296081945</v>
+        <v>1.288002240429705</v>
       </c>
       <c r="I19">
-        <v>0.610856921260428</v>
+        <v>0.4087005711172083</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>3.965683291769437</v>
+        <v>1.844618345498816</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.8377580912796532</v>
+        <v>0.3013181776852321</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.2988500988087708</v>
+        <v>0.06490739369498044</v>
       </c>
       <c r="E20">
-        <v>3.009903403381969</v>
+        <v>0.6435371872360207</v>
       </c>
       <c r="F20">
-        <v>8.317299007354535</v>
+        <v>2.119110209985365</v>
       </c>
       <c r="G20">
-        <v>9.918053123684388</v>
+        <v>2.391124544869683</v>
       </c>
       <c r="H20">
-        <v>4.665039568894372</v>
+        <v>1.326440215915113</v>
       </c>
       <c r="I20">
-        <v>0.6268135205769454</v>
+        <v>0.4133336567285752</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>4.091818400229187</v>
+        <v>1.88627012809178</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9411559823937239</v>
+        <v>0.3354050867557419</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.3635761746694754</v>
+        <v>0.07334044737054057</v>
       </c>
       <c r="E21">
-        <v>3.679344923286408</v>
+        <v>0.726800189790751</v>
       </c>
       <c r="F21">
-        <v>9.933502499803353</v>
+        <v>2.361158763589458</v>
       </c>
       <c r="G21">
-        <v>11.85815821520242</v>
+        <v>2.683935813114317</v>
       </c>
       <c r="H21">
-        <v>5.575618452073968</v>
+        <v>1.45677408627796</v>
       </c>
       <c r="I21">
-        <v>0.6807759445216846</v>
+        <v>0.429112214418673</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>4.515872099351498</v>
+        <v>2.026405625114307</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.008665481205696</v>
+        <v>0.3576291578720543</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.414578378602755</v>
+        <v>0.07888443913425647</v>
       </c>
       <c r="E22">
-        <v>4.213978699760389</v>
+        <v>0.7816282444840539</v>
       </c>
       <c r="F22">
-        <v>11.15708772985096</v>
+        <v>2.520670277776958</v>
       </c>
       <c r="G22">
-        <v>13.33009481252668</v>
+        <v>2.876650817821144</v>
       </c>
       <c r="H22">
-        <v>6.267461421372843</v>
+        <v>1.542882076632281</v>
       </c>
       <c r="I22">
-        <v>0.7163074138430829</v>
+        <v>0.4395793436413413</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>4.793206235152638</v>
+        <v>2.118115898853603</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.9726400862101627</v>
+        <v>0.3457728835230682</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.3862748291460463</v>
+        <v>0.07592231310724173</v>
       </c>
       <c r="E23">
-        <v>3.916396440104663</v>
+        <v>0.752325552932561</v>
       </c>
       <c r="F23">
-        <v>10.48361503380991</v>
+        <v>2.435410421870188</v>
       </c>
       <c r="G23">
-        <v>12.51955203874002</v>
+        <v>2.773666093207737</v>
       </c>
       <c r="H23">
-        <v>5.886395699561092</v>
+        <v>1.496837023020134</v>
       </c>
       <c r="I23">
-        <v>0.6973192642933483</v>
+        <v>0.4339788619097504</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>4.645170341327685</v>
+        <v>2.069158297353852</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8360668819177306</v>
+        <v>0.3007601869815915</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.2978916929191939</v>
+        <v>0.06477006025150445</v>
       </c>
       <c r="E24">
-        <v>3.000053865226164</v>
+        <v>0.6421827193271525</v>
       </c>
       <c r="F24">
-        <v>8.292850652779435</v>
+        <v>2.115175238321626</v>
       </c>
       <c r="G24">
-        <v>9.88873566483602</v>
+        <v>2.386360107228029</v>
       </c>
       <c r="H24">
-        <v>4.651293205077309</v>
+        <v>1.324325024093469</v>
       </c>
       <c r="I24">
-        <v>0.6259359484111684</v>
+        <v>0.4130784242511822</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>4.084890690002339</v>
+        <v>1.883982043575145</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6884222602584771</v>
+        <v>0.2519980490933165</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2231678415244431</v>
+        <v>0.05285854641996934</v>
       </c>
       <c r="E25">
-        <v>2.236674442812131</v>
+        <v>0.524910646920091</v>
       </c>
       <c r="F25">
-        <v>6.342005216931426</v>
+        <v>1.774930254878313</v>
       </c>
       <c r="G25">
-        <v>7.551648860852879</v>
+        <v>1.973780395381823</v>
       </c>
       <c r="H25">
-        <v>3.55713584585601</v>
+        <v>1.14195305260256</v>
       </c>
       <c r="I25">
-        <v>0.5500536194376906</v>
+        <v>0.3912191043998661</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>3.481366830697027</v>
+        <v>1.684892220676289</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_6/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_6/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2159311196958242</v>
+        <v>0.5793654039439957</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.04416460176246062</v>
+        <v>0.176664084881196</v>
       </c>
       <c r="E2">
-        <v>0.4396191691992186</v>
+        <v>1.765433349908108</v>
       </c>
       <c r="F2">
-        <v>1.528290297222981</v>
+        <v>5.085088052737632</v>
       </c>
       <c r="G2">
-        <v>1.673767081463382</v>
+        <v>6.047613846318768</v>
       </c>
       <c r="H2">
-        <v>1.010542361786406</v>
+        <v>2.855195282128761</v>
       </c>
       <c r="I2">
-        <v>0.3757315010515043</v>
+        <v>0.4951129138725179</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.538965158849294</v>
+        <v>3.037635430282705</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1913949238933697</v>
+        <v>0.5052132088299288</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.03830832642090343</v>
+        <v>0.1481600608386344</v>
       </c>
       <c r="E3">
-        <v>0.3823479279035951</v>
+        <v>1.477819511624659</v>
       </c>
       <c r="F3">
-        <v>1.363286054659909</v>
+        <v>4.299387531526605</v>
       </c>
       <c r="G3">
-        <v>1.472460773835678</v>
+        <v>5.107744382705164</v>
       </c>
       <c r="H3">
-        <v>0.9231199012414208</v>
+        <v>2.417775887462483</v>
       </c>
       <c r="I3">
-        <v>0.3656238581545637</v>
+        <v>0.4584487682843417</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.440536212657179</v>
+        <v>2.737299696658539</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1762869034279646</v>
+        <v>0.4595565776571533</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.03472637085036467</v>
+        <v>0.1316666761485692</v>
       </c>
       <c r="E4">
-        <v>0.3474053453013823</v>
+        <v>1.31180191048341</v>
       </c>
       <c r="F4">
-        <v>1.262945067803372</v>
+        <v>3.839723242349976</v>
       </c>
       <c r="G4">
-        <v>1.349747030403535</v>
+        <v>4.557876019152076</v>
       </c>
       <c r="H4">
-        <v>0.8702008080870769</v>
+        <v>2.162425671209235</v>
       </c>
       <c r="I4">
-        <v>0.3596127975951688</v>
+        <v>0.4362154386400974</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.380350891855613</v>
+        <v>2.5530864410552</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1701201473110672</v>
+        <v>0.4409186727193486</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.03326964694228707</v>
+        <v>0.1251451355863793</v>
       </c>
       <c r="E5">
-        <v>0.333216280922386</v>
+        <v>1.246240096146479</v>
       </c>
       <c r="F5">
-        <v>1.222288067622259</v>
+        <v>3.656993775845166</v>
       </c>
       <c r="G5">
-        <v>1.299949458491369</v>
+        <v>4.339267670826189</v>
       </c>
       <c r="H5">
-        <v>0.8488200623750686</v>
+        <v>2.061043229931983</v>
       </c>
       <c r="I5">
-        <v>0.3572128864356259</v>
+        <v>0.4272251559504028</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.3558914054328</v>
+        <v>2.478069448651866</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1690955695420513</v>
+        <v>0.4378218885601228</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.03302792226286044</v>
+        <v>0.124072942500618</v>
       </c>
       <c r="E6">
-        <v>0.3308630769826664</v>
+        <v>1.235465716026766</v>
       </c>
       <c r="F6">
-        <v>1.215550724464379</v>
+        <v>3.626899869878883</v>
       </c>
       <c r="G6">
-        <v>1.291692836908965</v>
+        <v>4.303263164096279</v>
       </c>
       <c r="H6">
-        <v>0.8452807431618226</v>
+        <v>2.044353751884955</v>
       </c>
       <c r="I6">
-        <v>0.3568173988916286</v>
+        <v>0.4257365520943779</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.351834048475041</v>
+        <v>2.465616123913208</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1762037765289648</v>
+        <v>0.459305352421552</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03470671369345268</v>
+        <v>0.1315779786118583</v>
       </c>
       <c r="E7">
-        <v>0.3472137901143384</v>
+        <v>1.310909909582634</v>
       </c>
       <c r="F7">
-        <v>1.262395826126067</v>
+        <v>3.837241647402067</v>
       </c>
       <c r="G7">
-        <v>1.349074614279345</v>
+        <v>4.554907267146802</v>
       </c>
       <c r="H7">
-        <v>0.8699117225502562</v>
+        <v>2.161048325781536</v>
       </c>
       <c r="I7">
-        <v>0.359580229755295</v>
+        <v>0.4360939092484273</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.380020748618335</v>
+        <v>2.552074523768539</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2074802658006831</v>
+        <v>0.5538236746775738</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.04214216942487781</v>
+        <v>0.1665900476819075</v>
       </c>
       <c r="E8">
-        <v>0.4198225367166089</v>
+        <v>1.663681052406304</v>
       </c>
       <c r="F8">
-        <v>1.47118785694326</v>
+        <v>4.808690486004849</v>
       </c>
       <c r="G8">
-        <v>1.604163365212003</v>
+        <v>5.7169713710569</v>
       </c>
       <c r="H8">
-        <v>0.98023762357343</v>
+        <v>2.701189145393414</v>
       </c>
       <c r="I8">
-        <v>0.3722062484302171</v>
+        <v>0.4824132112798409</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.504976964631908</v>
+        <v>2.934040714684272</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.2684501888307409</v>
+        <v>0.7382065226404109</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.05685744970638495</v>
+        <v>0.2466043174923129</v>
       </c>
       <c r="E9">
-        <v>0.5642327170640442</v>
+        <v>2.475205393489574</v>
       </c>
       <c r="F9">
-        <v>1.888902018709359</v>
+        <v>6.963220771646064</v>
       </c>
       <c r="G9">
-        <v>2.112127782647462</v>
+        <v>8.295420152117742</v>
       </c>
       <c r="H9">
-        <v>1.202918706961327</v>
+        <v>3.904959172676683</v>
       </c>
       <c r="I9">
-        <v>0.3984893586954925</v>
+        <v>0.5754683679897212</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.75186015072677</v>
+        <v>3.684562022066643</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.3129948669848943</v>
+        <v>0.873158726720078</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.06778656051733378</v>
+        <v>0.319578039405144</v>
       </c>
       <c r="E10">
-        <v>0.6719446234360191</v>
+        <v>3.22334282000827</v>
       </c>
       <c r="F10">
-        <v>2.201659492699889</v>
+        <v>8.842406559566143</v>
       </c>
       <c r="G10">
-        <v>2.491042104895939</v>
+        <v>10.54794552903923</v>
       </c>
       <c r="H10">
-        <v>1.370841485233257</v>
+        <v>4.960488211714562</v>
       </c>
       <c r="I10">
-        <v>0.4186982167615625</v>
+        <v>0.6452217692004893</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.93419659562025</v>
+        <v>4.23689462265861</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.3331993617551348</v>
+        <v>0.9344599874919197</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.07279217337988086</v>
+        <v>0.3589593210582223</v>
       </c>
       <c r="E11">
-        <v>0.7213816670721798</v>
+        <v>3.63128859148739</v>
       </c>
       <c r="F11">
-        <v>2.345399064368451</v>
+        <v>9.820535537072118</v>
       </c>
       <c r="G11">
-        <v>2.664885521213535</v>
+        <v>11.7224099143383</v>
       </c>
       <c r="H11">
-        <v>1.44827547428082</v>
+        <v>5.511853027748998</v>
       </c>
       <c r="I11">
-        <v>0.4280806917633271</v>
+        <v>0.6772639329326751</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>2.017317443662478</v>
+        <v>4.488382904391415</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.3408412057246721</v>
+        <v>0.957661837085908</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.07469321267035411</v>
+        <v>0.3752633481810932</v>
       </c>
       <c r="E12">
-        <v>0.7401723167001393</v>
+        <v>3.801232012380922</v>
       </c>
       <c r="F12">
-        <v>2.400055170825851</v>
+        <v>10.21784837750957</v>
       </c>
       <c r="G12">
-        <v>2.730945692543116</v>
+        <v>12.19995119539345</v>
       </c>
       <c r="H12">
-        <v>1.477756451588164</v>
+        <v>5.736200930869416</v>
       </c>
       <c r="I12">
-        <v>0.431660259156402</v>
+        <v>0.6894428311920251</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2.048815004509208</v>
+        <v>4.583648715502079</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.3391958157675106</v>
+        <v>0.9526653991390219</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.0742835337146488</v>
+        <v>0.3716779563501973</v>
       </c>
       <c r="E13">
-        <v>0.7361221926845474</v>
+        <v>3.76380268108926</v>
       </c>
       <c r="F13">
-        <v>2.388273756458403</v>
+        <v>10.13086452675719</v>
       </c>
       <c r="G13">
-        <v>2.71670796254466</v>
+        <v>12.09537757619205</v>
       </c>
       <c r="H13">
-        <v>1.471400018306724</v>
+        <v>5.687065115623682</v>
       </c>
       <c r="I13">
-        <v>0.4308881605543888</v>
+        <v>0.6868178671705891</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2.042030543333738</v>
+        <v>4.563130066384929</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.333828248206629</v>
+        <v>0.9363690428265841</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.0729484585700817</v>
+        <v>0.3602685749414007</v>
       </c>
       <c r="E14">
-        <v>0.7229261437163217</v>
+        <v>3.644911226198786</v>
       </c>
       <c r="F14">
-        <v>2.349891060477688</v>
+        <v>9.852607558786332</v>
       </c>
       <c r="G14">
-        <v>2.670315630292464</v>
+        <v>11.76094733936554</v>
       </c>
       <c r="H14">
-        <v>1.450697669861711</v>
+        <v>5.529954588443388</v>
       </c>
       <c r="I14">
-        <v>0.4283746547068858</v>
+        <v>0.6782649886334937</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2.01990835705044</v>
+        <v>4.496219825738706</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.3305392456624361</v>
+        <v>0.92638558070351</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.07213142522000737</v>
+        <v>0.3534821868334035</v>
       </c>
       <c r="E15">
-        <v>0.7148524956228215</v>
+        <v>3.574343968424884</v>
       </c>
       <c r="F15">
-        <v>2.326410295331868</v>
+        <v>9.686051262822417</v>
       </c>
       <c r="G15">
-        <v>2.641929398215893</v>
+        <v>11.56083503363408</v>
       </c>
       <c r="H15">
-        <v>1.438037758433723</v>
+        <v>5.435965475903458</v>
       </c>
       <c r="I15">
-        <v>0.4268385096919047</v>
+        <v>0.6730320097669491</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>2.006360570313319</v>
+        <v>4.455239622433311</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.3116732098856687</v>
+        <v>0.8691508517119928</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.06746016902452823</v>
+        <v>0.3171644564787073</v>
       </c>
       <c r="E16">
-        <v>0.6687232001523142</v>
+        <v>3.198447313802191</v>
       </c>
       <c r="F16">
-        <v>2.192296469740057</v>
+        <v>8.781623231144209</v>
       </c>
       <c r="G16">
-        <v>2.479712166869206</v>
+        <v>10.47501223004042</v>
       </c>
       <c r="H16">
-        <v>1.365802710240757</v>
+        <v>4.926269183172565</v>
       </c>
       <c r="I16">
-        <v>0.4180888088535966</v>
+        <v>0.6431340378037476</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.928767661017844</v>
+        <v>4.220463849171125</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3000838993120851</v>
+        <v>0.8340171836813681</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.06460364233217319</v>
+        <v>0.2967338190699849</v>
       </c>
       <c r="E17">
-        <v>0.6405414693056741</v>
+        <v>2.988156594715889</v>
       </c>
       <c r="F17">
-        <v>2.110407240501445</v>
+        <v>8.263294218223649</v>
       </c>
       <c r="G17">
-        <v>2.38058685249996</v>
+        <v>9.853293898477773</v>
       </c>
       <c r="H17">
-        <v>1.321762217021217</v>
+        <v>4.634675878376981</v>
       </c>
       <c r="I17">
-        <v>0.4127692216154415</v>
+        <v>0.624872587289893</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.881209144293734</v>
+        <v>4.076494888478635</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.2934125106845613</v>
+        <v>0.8138007528254718</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.06296379515380579</v>
+        <v>0.2855233700839506</v>
       </c>
       <c r="E18">
-        <v>0.6243729184997164</v>
+        <v>2.873090059639523</v>
       </c>
       <c r="F18">
-        <v>2.063443689084153</v>
+        <v>7.976016237963165</v>
       </c>
       <c r="G18">
-        <v>2.323710192705676</v>
+        <v>9.50887339078281</v>
       </c>
       <c r="H18">
-        <v>1.2965291561203</v>
+        <v>4.473224940678961</v>
       </c>
       <c r="I18">
-        <v>0.4097273953840102</v>
+        <v>0.6143983206426071</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.85387144156806</v>
+        <v>3.993709333444542</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.2911527646054139</v>
+        <v>0.8069543263252115</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.06240909297251562</v>
+        <v>0.2818100701237825</v>
       </c>
       <c r="E19">
-        <v>0.6189053326469747</v>
+        <v>2.835023477412136</v>
       </c>
       <c r="F19">
-        <v>2.047565729167701</v>
+        <v>7.880415980618352</v>
       </c>
       <c r="G19">
-        <v>2.304475839262807</v>
+        <v>9.394281011980297</v>
       </c>
       <c r="H19">
-        <v>1.288002240429705</v>
+        <v>4.419522960819506</v>
       </c>
       <c r="I19">
-        <v>0.4087005711172083</v>
+        <v>0.6108569212604635</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.844618345498816</v>
+        <v>3.965683291769466</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3013181776852321</v>
+        <v>0.8377580912796532</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.06490739369498044</v>
+        <v>0.2988500988089839</v>
       </c>
       <c r="E20">
-        <v>0.6435371872360207</v>
+        <v>3.009903403381898</v>
       </c>
       <c r="F20">
-        <v>2.119110209985365</v>
+        <v>8.317299007354507</v>
       </c>
       <c r="G20">
-        <v>2.391124544869683</v>
+        <v>9.918053123684388</v>
       </c>
       <c r="H20">
-        <v>1.326440215915113</v>
+        <v>4.665039568894372</v>
       </c>
       <c r="I20">
-        <v>0.4133336567285752</v>
+        <v>0.626813520576917</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.88627012809178</v>
+        <v>4.091818400229073</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.3354050867557419</v>
+        <v>0.9411559823937239</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.07334044737054057</v>
+        <v>0.3635761746698591</v>
       </c>
       <c r="E21">
-        <v>0.726800189790751</v>
+        <v>3.679344923286394</v>
       </c>
       <c r="F21">
-        <v>2.361158763589458</v>
+        <v>9.933502499803353</v>
       </c>
       <c r="G21">
-        <v>2.683935813114317</v>
+        <v>11.85815821520231</v>
       </c>
       <c r="H21">
-        <v>1.45677408627796</v>
+        <v>5.575618452073968</v>
       </c>
       <c r="I21">
-        <v>0.429112214418673</v>
+        <v>0.680775944521649</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2.026405625114307</v>
+        <v>4.515872099351498</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.3576291578720543</v>
+        <v>1.008665481205952</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.07888443913425647</v>
+        <v>0.4145783786027266</v>
       </c>
       <c r="E22">
-        <v>0.7816282444840539</v>
+        <v>4.213978699760446</v>
       </c>
       <c r="F22">
-        <v>2.520670277776958</v>
+        <v>11.15708772985101</v>
       </c>
       <c r="G22">
-        <v>2.876650817821144</v>
+        <v>13.3300948125268</v>
       </c>
       <c r="H22">
-        <v>1.542882076632281</v>
+        <v>6.2674614213729</v>
       </c>
       <c r="I22">
-        <v>0.4395793436413413</v>
+        <v>0.7163074138431185</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2.118115898853603</v>
+        <v>4.793206235152695</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.3457728835230682</v>
+        <v>0.9726400862103901</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.07592231310724173</v>
+        <v>0.386274829146231</v>
       </c>
       <c r="E23">
-        <v>0.752325552932561</v>
+        <v>3.916396440104663</v>
       </c>
       <c r="F23">
-        <v>2.435410421870188</v>
+        <v>10.48361503380991</v>
       </c>
       <c r="G23">
-        <v>2.773666093207737</v>
+        <v>12.5195520387399</v>
       </c>
       <c r="H23">
-        <v>1.496837023020134</v>
+        <v>5.886395699561206</v>
       </c>
       <c r="I23">
-        <v>0.4339788619097504</v>
+        <v>0.6973192642933483</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2.069158297353852</v>
+        <v>4.645170341327685</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3007601869815915</v>
+        <v>0.8360668819180432</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.06477006025150445</v>
+        <v>0.2978916929193929</v>
       </c>
       <c r="E24">
-        <v>0.6421827193271525</v>
+        <v>3.000053865226121</v>
       </c>
       <c r="F24">
-        <v>2.115175238321626</v>
+        <v>8.292850652779379</v>
       </c>
       <c r="G24">
-        <v>2.386360107228029</v>
+        <v>9.88873566483602</v>
       </c>
       <c r="H24">
-        <v>1.324325024093469</v>
+        <v>4.651293205077195</v>
       </c>
       <c r="I24">
-        <v>0.4130784242511822</v>
+        <v>0.6259359484111684</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.883982043575145</v>
+        <v>4.084890690002226</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.2519980490933165</v>
+        <v>0.6884222602583066</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.05285854641996934</v>
+        <v>0.2231678415244431</v>
       </c>
       <c r="E25">
-        <v>0.524910646920091</v>
+        <v>2.236674442812131</v>
       </c>
       <c r="F25">
-        <v>1.774930254878313</v>
+        <v>6.342005216931454</v>
       </c>
       <c r="G25">
-        <v>1.973780395381823</v>
+        <v>7.551648860852879</v>
       </c>
       <c r="H25">
-        <v>1.14195305260256</v>
+        <v>3.55713584585601</v>
       </c>
       <c r="I25">
-        <v>0.3912191043998661</v>
+        <v>0.5500536194376338</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.684892220676289</v>
+        <v>3.481366830697027</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_6/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_6/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,40 +415,46 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5793654039439957</v>
+        <v>1.831077009672327</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.176664084881196</v>
+        <v>0.006931448960397546</v>
       </c>
       <c r="E2">
-        <v>1.765433349908108</v>
+        <v>0.9819896321170631</v>
       </c>
       <c r="F2">
-        <v>5.085088052737632</v>
+        <v>1.8895288732962</v>
       </c>
       <c r="G2">
-        <v>6.047613846318768</v>
+        <v>2.024230264162213</v>
       </c>
       <c r="H2">
-        <v>2.855195282128761</v>
+        <v>0.0001564094747863454</v>
       </c>
       <c r="I2">
-        <v>0.4951129138725179</v>
+        <v>0.007552397836885216</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1.015345850106371</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.3006109399895136</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,45 +463,51 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>3.037635430282705</v>
+        <v>1.095459740987565</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>1.28730748422764</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5052132088299288</v>
+        <v>1.601280919977114</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1481600608386344</v>
+        <v>0.006120941852660877</v>
       </c>
       <c r="E3">
-        <v>1.477819511624659</v>
+        <v>0.8708339732257215</v>
       </c>
       <c r="F3">
-        <v>4.299387531526605</v>
+        <v>1.639795884611075</v>
       </c>
       <c r="G3">
-        <v>5.107744382705164</v>
+        <v>1.74988534991914</v>
       </c>
       <c r="H3">
-        <v>2.417775887462483</v>
+        <v>1.179973536857837E-05</v>
       </c>
       <c r="I3">
-        <v>0.4584487682843417</v>
+        <v>0.009426015838738699</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.8917671070967401</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.3139860439007336</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,45 +516,51 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.737299696658539</v>
+        <v>0.9525841311050272</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>1.249219371953586</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4595565776571533</v>
+        <v>1.459375249912028</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1316666761485692</v>
+        <v>0.005641694774816131</v>
       </c>
       <c r="E4">
-        <v>1.31180191048341</v>
+        <v>0.8036499410923099</v>
       </c>
       <c r="F4">
-        <v>3.839723242349976</v>
+        <v>1.489315406659415</v>
       </c>
       <c r="G4">
-        <v>4.557876019152076</v>
+        <v>1.584440752824662</v>
       </c>
       <c r="H4">
-        <v>2.162425671209235</v>
+        <v>0.0001820449341564112</v>
       </c>
       <c r="I4">
-        <v>0.4362154386400974</v>
+        <v>0.01075212077849352</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.8175117384441535</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.3224949334041103</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,45 +569,51 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.5530864410552</v>
+        <v>0.8653204597315778</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>1.22674666332064</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4409186727193486</v>
+        <v>1.399576109061826</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1251451355863793</v>
+        <v>0.005436751463086864</v>
       </c>
       <c r="E5">
-        <v>1.246240096146479</v>
+        <v>0.7772224624657085</v>
       </c>
       <c r="F5">
-        <v>3.656993775845166</v>
+        <v>1.428059474231588</v>
       </c>
       <c r="G5">
-        <v>4.339267670826189</v>
+        <v>1.517005349074452</v>
       </c>
       <c r="H5">
-        <v>2.061043229931983</v>
+        <v>0.0003125179560029556</v>
       </c>
       <c r="I5">
-        <v>0.4272251559504028</v>
+        <v>0.01142107626775068</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.7872744129742841</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.3257902784394826</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,45 +622,51 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.478069448651866</v>
+        <v>0.8304724634967044</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>1.219000393806454</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4378218885601228</v>
+        <v>1.387475243191091</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.124072942500618</v>
+        <v>0.00538641497159098</v>
       </c>
       <c r="E6">
-        <v>1.235465716026766</v>
+        <v>0.7737411403855816</v>
       </c>
       <c r="F6">
-        <v>3.626899869878883</v>
+        <v>1.417241760248245</v>
       </c>
       <c r="G6">
-        <v>4.303263164096279</v>
+        <v>1.505030226281349</v>
       </c>
       <c r="H6">
-        <v>2.044353751884955</v>
+        <v>0.0003384958074383881</v>
       </c>
       <c r="I6">
-        <v>0.4257365520943779</v>
+        <v>0.01164743882247343</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.7818625701683004</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.3260455175145349</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,45 +675,51 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.465616123913208</v>
+        <v>0.8254437262922352</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>1.219185066462174</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.459305352421552</v>
+        <v>1.45265407599598</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1315779786118583</v>
+        <v>0.005593752382798911</v>
       </c>
       <c r="E7">
-        <v>1.310909909582634</v>
+        <v>0.8057447612563635</v>
       </c>
       <c r="F7">
-        <v>3.837241647402067</v>
+        <v>1.48662252723598</v>
       </c>
       <c r="G7">
-        <v>4.554907267146802</v>
+        <v>1.581300944487566</v>
       </c>
       <c r="H7">
-        <v>2.161048325781536</v>
+        <v>0.0001850581892584025</v>
       </c>
       <c r="I7">
-        <v>0.4360939092484273</v>
+        <v>0.0110523177859827</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.8159776230936018</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.321734256377014</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,45 +728,51 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.552074523768539</v>
+        <v>0.8669083119195591</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>1.230652320109272</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5538236746775738</v>
+        <v>1.74410486746666</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1665900476819075</v>
+        <v>0.00658786168373382</v>
       </c>
       <c r="E8">
-        <v>1.663681052406304</v>
+        <v>0.9466943808157566</v>
       </c>
       <c r="F8">
-        <v>4.808690486004849</v>
+        <v>1.800283990566925</v>
       </c>
       <c r="G8">
-        <v>5.7169713710569</v>
+        <v>1.92597639943989</v>
       </c>
       <c r="H8">
-        <v>2.701189145393414</v>
+        <v>4.896942674315063E-05</v>
       </c>
       <c r="I8">
-        <v>0.4824132112798409</v>
+        <v>0.008510786810379756</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.9708717016873436</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.3041230747862995</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,45 +781,51 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.934040714684272</v>
+        <v>1.048828749896103</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>1.279433873831948</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7382065226404109</v>
+        <v>2.320150025721944</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2466043174923129</v>
+        <v>0.008803301548319098</v>
       </c>
       <c r="E9">
-        <v>2.475205393489574</v>
+        <v>1.229489739212795</v>
       </c>
       <c r="F9">
-        <v>6.963220771646064</v>
+        <v>2.446191949323293</v>
       </c>
       <c r="G9">
-        <v>8.295420152117742</v>
+        <v>2.635047282517945</v>
       </c>
       <c r="H9">
-        <v>3.904959172676683</v>
+        <v>0.002068061488164741</v>
       </c>
       <c r="I9">
-        <v>0.5754683679897212</v>
+        <v>0.004571070143094325</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1.292003976756462</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.273438886929358</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,45 +834,51 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>3.684562022066643</v>
+        <v>1.406421380714647</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>1.375127683742491</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.873158726720078</v>
+        <v>2.71207070836482</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.319578039405144</v>
+        <v>0.01022060498976174</v>
       </c>
       <c r="E10">
-        <v>3.22334282000827</v>
+        <v>1.470582651008101</v>
       </c>
       <c r="F10">
-        <v>8.842406559566143</v>
+        <v>2.928344246146963</v>
       </c>
       <c r="G10">
-        <v>10.54794552903923</v>
+        <v>3.162147868757415</v>
       </c>
       <c r="H10">
-        <v>4.960488211714562</v>
+        <v>0.005282807678522072</v>
       </c>
       <c r="I10">
-        <v>0.6452217692004893</v>
+        <v>0.00291550269572749</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1.531292593690125</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.2495464535721359</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,45 +887,51 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>4.23689462265861</v>
+        <v>1.640868668671686</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>1.470791099349427</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.9344599874919197</v>
+        <v>2.663749702868415</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.3589593210582223</v>
+        <v>0.007932577790111139</v>
       </c>
       <c r="E11">
-        <v>3.63128859148739</v>
+        <v>1.793412268063832</v>
       </c>
       <c r="F11">
-        <v>9.820535537072118</v>
+        <v>3.014620197629625</v>
       </c>
       <c r="G11">
-        <v>11.7224099143383</v>
+        <v>3.242048141213388</v>
       </c>
       <c r="H11">
-        <v>5.511853027748998</v>
+        <v>0.02413979714897252</v>
       </c>
       <c r="I11">
-        <v>0.6772639329326751</v>
+        <v>0.003214895951479946</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1.560568290483076</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.2222509639360464</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,45 +940,51 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>4.488382904391415</v>
+        <v>1.469334812716198</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>1.69798699619767</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.957661837085908</v>
+        <v>2.549655077244665</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.3752633481810932</v>
+        <v>0.006065199278541655</v>
       </c>
       <c r="E12">
-        <v>3.801232012380922</v>
+        <v>2.032605975649247</v>
       </c>
       <c r="F12">
-        <v>10.21784837750957</v>
+        <v>2.985073095146788</v>
       </c>
       <c r="G12">
-        <v>12.19995119539345</v>
+        <v>3.198270471762129</v>
       </c>
       <c r="H12">
-        <v>5.736200930869416</v>
+        <v>0.06261255683439515</v>
       </c>
       <c r="I12">
-        <v>0.6894428311920251</v>
+        <v>0.003257907181990483</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1.534611596846332</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.2138392587779032</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,45 +993,51 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>4.583648715502079</v>
+        <v>1.282717999102772</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>1.881782307600133</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.9526653991390219</v>
+        <v>2.370035320046895</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.3716779563501973</v>
+        <v>0.00432757966819608</v>
       </c>
       <c r="E13">
-        <v>3.76380268108926</v>
+        <v>2.221301788274531</v>
       </c>
       <c r="F13">
-        <v>10.13086452675719</v>
+        <v>2.859668077022263</v>
       </c>
       <c r="G13">
-        <v>12.09537757619205</v>
+        <v>3.051125136819337</v>
       </c>
       <c r="H13">
-        <v>5.687065115623682</v>
+        <v>0.1177222076843947</v>
       </c>
       <c r="I13">
-        <v>0.6868178671705891</v>
+        <v>0.003522544245027071</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1.461824265006982</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.2178251762781214</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,45 +1046,51 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>4.563130066384929</v>
+        <v>1.078479503165283</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>2.046487698210484</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9363690428265841</v>
+        <v>2.214302902617703</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.3602685749414007</v>
+        <v>0.003211349724034918</v>
       </c>
       <c r="E14">
-        <v>3.644911226198786</v>
+        <v>2.332812727004779</v>
       </c>
       <c r="F14">
-        <v>9.852607558786332</v>
+        <v>2.728728287480578</v>
       </c>
       <c r="G14">
-        <v>11.76094733936554</v>
+        <v>2.90167579273492</v>
       </c>
       <c r="H14">
-        <v>5.529954588443388</v>
+        <v>0.1664697679378691</v>
       </c>
       <c r="I14">
-        <v>0.6782649886334937</v>
+        <v>0.003916419640664692</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1.389800816378909</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.2272377460946853</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,45 +1099,51 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>4.496219825738706</v>
+        <v>0.9311452206665933</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>2.155631919350725</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.92638558070351</v>
+        <v>2.160645882838196</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.3534821868334035</v>
+        <v>0.002921361334276895</v>
       </c>
       <c r="E15">
-        <v>3.574343968424884</v>
+        <v>2.347331663487083</v>
       </c>
       <c r="F15">
-        <v>9.686051262822417</v>
+        <v>2.676266368362974</v>
       </c>
       <c r="G15">
-        <v>11.56083503363408</v>
+        <v>2.84300480450878</v>
       </c>
       <c r="H15">
-        <v>5.435965475903458</v>
+        <v>0.1787029015318495</v>
       </c>
       <c r="I15">
-        <v>0.6730320097669491</v>
+        <v>0.004201716706394798</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1.362172466794163</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.2311861225199632</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,45 +1152,51 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>4.455239622433311</v>
+        <v>0.8910679716920242</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>2.177606607336969</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.8691508517119928</v>
+        <v>2.030662347413625</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.3171644564787073</v>
+        <v>0.002629370056206781</v>
       </c>
       <c r="E16">
-        <v>3.198447313802191</v>
+        <v>2.197003222241506</v>
       </c>
       <c r="F16">
-        <v>8.781623231144209</v>
+        <v>2.489870330052867</v>
       </c>
       <c r="G16">
-        <v>10.47501223004042</v>
+        <v>2.64161560913567</v>
       </c>
       <c r="H16">
-        <v>4.926269183172565</v>
+        <v>0.1645960841665897</v>
       </c>
       <c r="I16">
-        <v>0.6431340378037476</v>
+        <v>0.005045746406461049</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>1.271674986453576</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.2393050925322964</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,45 +1205,51 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>4.220463849171125</v>
+        <v>0.8391354864553193</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>2.097233091978381</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.8340171836813681</v>
+        <v>2.012473610292489</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.2967338190699849</v>
+        <v>0.002977145468205933</v>
       </c>
       <c r="E17">
-        <v>2.988156594715889</v>
+        <v>2.022717603844811</v>
       </c>
       <c r="F17">
-        <v>8.263294218223649</v>
+        <v>2.417618914924006</v>
       </c>
       <c r="G17">
-        <v>9.853293898477773</v>
+        <v>2.567676997752812</v>
       </c>
       <c r="H17">
-        <v>4.634675878376981</v>
+        <v>0.1261286983232708</v>
       </c>
       <c r="I17">
-        <v>0.624872587289893</v>
+        <v>0.005509984441784965</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>1.241114793693811</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.2399746558642661</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,45 +1258,51 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>4.076494888478635</v>
+        <v>0.8755750131841751</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>1.977960366105322</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8138007528254718</v>
+        <v>2.093794718150662</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.2855233700839506</v>
+        <v>0.004077741787289924</v>
       </c>
       <c r="E18">
-        <v>2.873090059639523</v>
+        <v>1.813668426063572</v>
       </c>
       <c r="F18">
-        <v>7.976016237963165</v>
+        <v>2.434505225821255</v>
       </c>
       <c r="G18">
-        <v>9.50887339078281</v>
+        <v>2.594441460907376</v>
       </c>
       <c r="H18">
-        <v>4.473224940678961</v>
+        <v>0.0731539883392287</v>
       </c>
       <c r="I18">
-        <v>0.6143983206426071</v>
+        <v>0.005312078055054847</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>1.258319539398627</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.2381949051345043</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,45 +1311,51 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>3.993709333444542</v>
+        <v>0.9971276290450817</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>1.814786863787447</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8069543263252115</v>
+        <v>2.240993364086876</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.2818100701237825</v>
+        <v>0.005886385538335759</v>
       </c>
       <c r="E19">
-        <v>2.835023477412136</v>
+        <v>1.61104575311937</v>
       </c>
       <c r="F19">
-        <v>7.880415980618352</v>
+        <v>2.518068041444934</v>
       </c>
       <c r="G19">
-        <v>9.394281011980297</v>
+        <v>2.696225856930141</v>
       </c>
       <c r="H19">
-        <v>4.419522960819506</v>
+        <v>0.02832317447769128</v>
       </c>
       <c r="I19">
-        <v>0.6108569212604635</v>
+        <v>0.005149814018778009</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1.310513123962323</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.240825965990317</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,45 +1364,51 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>3.965683291769466</v>
+        <v>1.192480267851863</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>1.650011951095848</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.8377580912796532</v>
+        <v>2.589466662128302</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.2988500988089839</v>
+        <v>0.009679404101017752</v>
       </c>
       <c r="E20">
-        <v>3.009903403381898</v>
+        <v>1.415211707583566</v>
       </c>
       <c r="F20">
-        <v>8.317299007354507</v>
+        <v>2.793148664271598</v>
       </c>
       <c r="G20">
-        <v>9.918053123684388</v>
+        <v>3.013696344003307</v>
       </c>
       <c r="H20">
-        <v>4.665039568894372</v>
+        <v>0.00427105761410651</v>
       </c>
       <c r="I20">
-        <v>0.626813520576917</v>
+        <v>0.004139898342070403</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1.463423675672061</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.2534055158933777</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,45 +1417,51 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>4.091818400229073</v>
+        <v>1.584130403324281</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>1.459779972273353</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9411559823937239</v>
+        <v>2.931642790759895</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.3635761746698591</v>
+        <v>0.01143743930987995</v>
       </c>
       <c r="E21">
-        <v>3.679344923286394</v>
+        <v>1.569643712794601</v>
       </c>
       <c r="F21">
-        <v>9.933502499803353</v>
+        <v>3.198810942394687</v>
       </c>
       <c r="G21">
-        <v>11.85815821520231</v>
+        <v>3.459757348673691</v>
       </c>
       <c r="H21">
-        <v>5.575618452073968</v>
+        <v>0.007422678732258631</v>
       </c>
       <c r="I21">
-        <v>0.680775944521649</v>
+        <v>0.002962919050314206</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1.667740459198512</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.2402018482692156</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,45 +1470,51 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>4.515872099351498</v>
+        <v>1.816121620463491</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>1.503677064416181</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.008665481205952</v>
+        <v>3.1501508439232</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.4145783786027266</v>
+        <v>0.01251776916200953</v>
       </c>
       <c r="E22">
-        <v>4.213978699760446</v>
+        <v>1.681648728015489</v>
       </c>
       <c r="F22">
-        <v>11.15708772985101</v>
+        <v>3.46569069849707</v>
       </c>
       <c r="G22">
-        <v>13.3300948125268</v>
+        <v>3.752596376412043</v>
       </c>
       <c r="H22">
-        <v>6.2674614213729</v>
+        <v>0.00991896691642152</v>
       </c>
       <c r="I22">
-        <v>0.7163074138431185</v>
+        <v>0.002123937734944903</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1.801903241494017</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.2315338371213844</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,45 +1523,51 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>4.793206235152695</v>
+        <v>1.949259483778519</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>1.536939255640434</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.9726400862103901</v>
+        <v>3.040780648338796</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.386274829146231</v>
+        <v>0.01198815691356359</v>
       </c>
       <c r="E23">
-        <v>3.916396440104663</v>
+        <v>1.618512533390515</v>
       </c>
       <c r="F23">
-        <v>10.48361503380991</v>
+        <v>3.324784191150428</v>
       </c>
       <c r="G23">
-        <v>12.5195520387399</v>
+        <v>3.598212048526079</v>
       </c>
       <c r="H23">
-        <v>5.886395699561206</v>
+        <v>0.00855131449486074</v>
       </c>
       <c r="I23">
-        <v>0.6973192642933483</v>
+        <v>0.00222524968817428</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1.731262979193446</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.2369611865790588</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,45 +1576,51 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>4.645170341327685</v>
+        <v>1.875600412513052</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>1.513862218942052</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8360668819180432</v>
+        <v>2.614512217515767</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.2978916929193929</v>
+        <v>0.01001913079321426</v>
       </c>
       <c r="E24">
-        <v>3.000053865226121</v>
+        <v>1.390944727459456</v>
       </c>
       <c r="F24">
-        <v>8.292850652779379</v>
+        <v>2.802438652264357</v>
       </c>
       <c r="G24">
-        <v>9.88873566483602</v>
+        <v>3.025463132461965</v>
       </c>
       <c r="H24">
-        <v>4.651293205077195</v>
+        <v>0.004253388373651856</v>
       </c>
       <c r="I24">
-        <v>0.6259359484111684</v>
+        <v>0.003582493230377182</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>1.469577112541145</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.2569494649446398</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,45 +1629,51 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>4.084890690002226</v>
+        <v>1.603028430743848</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>1.436564988047749</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6884222602583066</v>
+        <v>2.154028074300413</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2231678415244431</v>
+        <v>0.008096653188555791</v>
       </c>
       <c r="E25">
-        <v>2.236674442812131</v>
+        <v>1.156014213484653</v>
       </c>
       <c r="F25">
-        <v>6.342005216931454</v>
+        <v>2.26437298012587</v>
       </c>
       <c r="G25">
-        <v>7.551648860852879</v>
+        <v>2.435212076151657</v>
       </c>
       <c r="H25">
-        <v>3.55713584585601</v>
+        <v>0.001237828488610537</v>
       </c>
       <c r="I25">
-        <v>0.5500536194376338</v>
+        <v>0.005948048513729987</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>1.201052409683768</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.2801080199790116</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,9 +1682,15 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>3.481366830697027</v>
+        <v>1.312830391098004</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>1.356117508671232</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_6/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_6/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.831077009672327</v>
+        <v>1.802665249471744</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.006931448960397546</v>
+        <v>0.007079469886111411</v>
       </c>
       <c r="E2">
-        <v>0.9819896321170631</v>
+        <v>0.9260125264616192</v>
       </c>
       <c r="F2">
-        <v>1.8895288732962</v>
+        <v>1.872835280105562</v>
       </c>
       <c r="G2">
-        <v>2.024230264162213</v>
+        <v>2.019121909624573</v>
       </c>
       <c r="H2">
-        <v>0.0001564094747863454</v>
+        <v>0.0003142385302439266</v>
       </c>
       <c r="I2">
-        <v>0.007552397836885216</v>
+        <v>0.005104036226355468</v>
       </c>
       <c r="J2">
-        <v>1.015345850106371</v>
+        <v>1.061211945863448</v>
       </c>
       <c r="K2">
-        <v>0.3006109399895136</v>
+        <v>0.2727706420131391</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1266833100359914</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.0817988462843644</v>
       </c>
       <c r="N2">
-        <v>1.095459740987565</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>1.28730748422764</v>
+        <v>1.098848968094046</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>1.273881971549685</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.601280919977114</v>
+        <v>1.582874542159772</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.006120941852660877</v>
+        <v>0.006425126867448228</v>
       </c>
       <c r="E3">
-        <v>0.8708339732257215</v>
+        <v>0.8161744201377275</v>
       </c>
       <c r="F3">
-        <v>1.639795884611075</v>
+        <v>1.631892704327555</v>
       </c>
       <c r="G3">
-        <v>1.74988534991914</v>
+        <v>1.745954196137347</v>
       </c>
       <c r="H3">
-        <v>1.179973536857837E-05</v>
+        <v>8.883006229698509E-06</v>
       </c>
       <c r="I3">
-        <v>0.009426015838738699</v>
+        <v>0.006378783279897604</v>
       </c>
       <c r="J3">
-        <v>0.8917671070967401</v>
+        <v>0.9453773615205989</v>
       </c>
       <c r="K3">
-        <v>0.3139860439007336</v>
+        <v>0.2849807626118279</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1322532150407945</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.08700715354605792</v>
       </c>
       <c r="N3">
-        <v>0.9525841311050272</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>1.249219371953586</v>
+        <v>0.9533857328767965</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>1.224362582632097</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.459375249912028</v>
+        <v>1.446698705381067</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.005641694774816131</v>
+        <v>0.006027975285796572</v>
       </c>
       <c r="E4">
-        <v>0.8036499410923099</v>
+        <v>0.7498012070258966</v>
       </c>
       <c r="F4">
-        <v>1.489315406659415</v>
+        <v>1.486250808104742</v>
       </c>
       <c r="G4">
-        <v>1.584440752824662</v>
+        <v>1.581188090746423</v>
       </c>
       <c r="H4">
-        <v>0.0001820449341564112</v>
+        <v>4.007637216996152E-05</v>
       </c>
       <c r="I4">
-        <v>0.01075212077849352</v>
+        <v>0.007301872964812439</v>
       </c>
       <c r="J4">
-        <v>0.8175117384441535</v>
+        <v>0.8749547852302442</v>
       </c>
       <c r="K4">
-        <v>0.3224949334041103</v>
+        <v>0.2927163366180281</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1359601307436495</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.09060427152381056</v>
       </c>
       <c r="N4">
-        <v>0.8653204597315778</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>1.22674666332064</v>
+        <v>0.8645851648839482</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>1.195129911911508</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.399576109061826</v>
+        <v>1.389266189206609</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.005436751463086864</v>
+        <v>0.005854207246857257</v>
       </c>
       <c r="E5">
-        <v>0.7772224624657085</v>
+        <v>0.723662957143361</v>
       </c>
       <c r="F5">
-        <v>1.428059474231588</v>
+        <v>1.426884494156084</v>
       </c>
       <c r="G5">
-        <v>1.517005349074452</v>
+        <v>1.514071210073723</v>
       </c>
       <c r="H5">
-        <v>0.0003125179560029556</v>
+        <v>0.0001042010408520699</v>
       </c>
       <c r="I5">
-        <v>0.01142107626775068</v>
+        <v>0.007808480659249106</v>
       </c>
       <c r="J5">
-        <v>0.7872744129742841</v>
+        <v>0.8460911242404734</v>
       </c>
       <c r="K5">
-        <v>0.3257902784394826</v>
+        <v>0.295706294441727</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1373909397074051</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.09215468006663752</v>
       </c>
       <c r="N5">
-        <v>0.8304724634967044</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>1.219000393806454</v>
+        <v>0.8290817488365292</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>1.18461343350647</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.387475243191091</v>
+        <v>1.377714325950677</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.00538641497159098</v>
+        <v>0.005809882612048511</v>
       </c>
       <c r="E6">
-        <v>0.7737411403855816</v>
+        <v>0.720170137990209</v>
       </c>
       <c r="F6">
-        <v>1.417241760248245</v>
+        <v>1.41642542110479</v>
       </c>
       <c r="G6">
-        <v>1.505030226281349</v>
+        <v>1.502212815544198</v>
       </c>
       <c r="H6">
-        <v>0.0003384958074383881</v>
+        <v>0.0001182777578562222</v>
       </c>
       <c r="I6">
-        <v>0.01164743882247343</v>
+        <v>0.008021514016501641</v>
       </c>
       <c r="J6">
-        <v>0.7818625701683004</v>
+        <v>0.8409200635412617</v>
       </c>
       <c r="K6">
-        <v>0.3260455175145349</v>
+        <v>0.2959391461715972</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1374490152683077</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.09240000865791176</v>
       </c>
       <c r="N6">
-        <v>0.8254437262922352</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>1.219185066462174</v>
+        <v>0.8238907888629399</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>1.184243773961825</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.45265407599598</v>
+        <v>1.439712637226933</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.005593752382798911</v>
+        <v>0.005883987324031281</v>
       </c>
       <c r="E7">
-        <v>0.8057447612563635</v>
+        <v>0.7500698886833064</v>
       </c>
       <c r="F7">
-        <v>1.48662252723598</v>
+        <v>1.479554566154903</v>
       </c>
       <c r="G7">
-        <v>1.581300944487566</v>
+        <v>1.583050862308454</v>
       </c>
       <c r="H7">
-        <v>0.0001850581892584025</v>
+        <v>4.210732422915697E-05</v>
       </c>
       <c r="I7">
-        <v>0.0110523177859827</v>
+        <v>0.007641124362911533</v>
       </c>
       <c r="J7">
-        <v>0.8159776230936018</v>
+        <v>0.8606689638696707</v>
       </c>
       <c r="K7">
-        <v>0.321734256377014</v>
+        <v>0.2919609291037517</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1354441123690684</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.09055734191391912</v>
       </c>
       <c r="N7">
-        <v>0.8669083119195591</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>1.230652320109272</v>
+        <v>0.86475866303212</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>1.199282505812349</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.74410486746666</v>
+        <v>1.717361036512585</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.00658786168373382</v>
+        <v>0.006469178447048307</v>
       </c>
       <c r="E8">
-        <v>0.9466943808157566</v>
+        <v>0.8853313627983397</v>
       </c>
       <c r="F8">
-        <v>1.800283990566925</v>
+        <v>1.772930357870337</v>
       </c>
       <c r="G8">
-        <v>1.92597639943989</v>
+        <v>1.937698699235341</v>
       </c>
       <c r="H8">
-        <v>4.896942674315063E-05</v>
+        <v>0.0001552188043281166</v>
       </c>
       <c r="I8">
-        <v>0.008510786810379756</v>
+        <v>0.005923567507055694</v>
       </c>
       <c r="J8">
-        <v>0.9708717016873436</v>
+        <v>0.9769366006794087</v>
       </c>
       <c r="K8">
-        <v>0.3041230747862995</v>
+        <v>0.2758067199726311</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1278758802942939</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.08332612066200551</v>
       </c>
       <c r="N8">
-        <v>1.048828749896103</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>1.279433873831948</v>
+        <v>1.046891742557307</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>1.263583808311353</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.320150025721944</v>
+        <v>2.264734506536342</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.008803301548319098</v>
+        <v>0.008104790943406215</v>
       </c>
       <c r="E9">
-        <v>1.229489739212795</v>
+        <v>1.162881887713894</v>
       </c>
       <c r="F9">
-        <v>2.446191949323293</v>
+        <v>2.388611136891669</v>
       </c>
       <c r="G9">
-        <v>2.635047282517945</v>
+        <v>2.648034742823995</v>
       </c>
       <c r="H9">
-        <v>0.002068061488164741</v>
+        <v>0.002300317267007745</v>
       </c>
       <c r="I9">
-        <v>0.004571070143094325</v>
+        <v>0.003216949734106578</v>
       </c>
       <c r="J9">
-        <v>1.292003976756462</v>
+        <v>1.259720508566346</v>
       </c>
       <c r="K9">
-        <v>0.273438886929358</v>
+        <v>0.2475598686461149</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1161805107536509</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.07260081876590441</v>
       </c>
       <c r="N9">
-        <v>1.406421380714647</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>1.375127683742491</v>
+        <v>1.410018119258268</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>1.390200755513206</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.71207070836482</v>
+        <v>2.633320304575761</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01022060498976174</v>
+        <v>0.008480255162449879</v>
       </c>
       <c r="E10">
-        <v>1.470582651008101</v>
+        <v>1.38725724465256</v>
       </c>
       <c r="F10">
-        <v>2.928344246146963</v>
+        <v>2.820124138200782</v>
       </c>
       <c r="G10">
-        <v>3.162147868757415</v>
+        <v>3.206534771174148</v>
       </c>
       <c r="H10">
-        <v>0.005282807678522072</v>
+        <v>0.005293368172521351</v>
       </c>
       <c r="I10">
-        <v>0.00291550269572749</v>
+        <v>0.002261388428090427</v>
       </c>
       <c r="J10">
-        <v>1.531292593690125</v>
+        <v>1.389136360374295</v>
       </c>
       <c r="K10">
-        <v>0.2495464535721359</v>
+        <v>0.2257951849619451</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.108192150366154</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.06575015030186471</v>
       </c>
       <c r="N10">
-        <v>1.640868668671686</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>1.470791099349427</v>
+        <v>1.639331003955903</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>1.511155177341038</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.663749702868415</v>
+        <v>2.604297680026832</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.007932577790111139</v>
+        <v>0.005408553753952106</v>
       </c>
       <c r="E11">
-        <v>1.793412268063832</v>
+        <v>1.665955872886315</v>
       </c>
       <c r="F11">
-        <v>3.014620197629625</v>
+        <v>2.852043103310308</v>
       </c>
       <c r="G11">
-        <v>3.242048141213388</v>
+        <v>3.364701898790372</v>
       </c>
       <c r="H11">
-        <v>0.02413979714897252</v>
+        <v>0.02396880574172755</v>
       </c>
       <c r="I11">
-        <v>0.003214895951479946</v>
+        <v>0.002789244442961802</v>
       </c>
       <c r="J11">
-        <v>1.560568290483076</v>
+        <v>1.253008094809047</v>
       </c>
       <c r="K11">
-        <v>0.2222509639360464</v>
+        <v>0.2057660790368523</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1023285417630606</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.05749166690370711</v>
       </c>
       <c r="N11">
-        <v>1.469334812716198</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>1.69798699619767</v>
+        <v>1.441729760956719</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>1.734106637296094</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.549655077244665</v>
+        <v>2.513069558379641</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.006065199278541655</v>
+        <v>0.003537407205953969</v>
       </c>
       <c r="E12">
-        <v>2.032605975649247</v>
+        <v>1.873319199522527</v>
       </c>
       <c r="F12">
-        <v>2.985073095146788</v>
+        <v>2.803562397699665</v>
       </c>
       <c r="G12">
-        <v>3.198270471762129</v>
+        <v>3.361339089061971</v>
       </c>
       <c r="H12">
-        <v>0.06261255683439515</v>
+        <v>0.06238428796696383</v>
       </c>
       <c r="I12">
-        <v>0.003257907181990483</v>
+        <v>0.00283020182081728</v>
       </c>
       <c r="J12">
-        <v>1.534611596846332</v>
+        <v>1.160118120173905</v>
       </c>
       <c r="K12">
-        <v>0.2138392587779032</v>
+        <v>0.2008838107359616</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1021392370809142</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.05432335060206248</v>
       </c>
       <c r="N12">
-        <v>1.282717999102772</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>1.881782307600133</v>
+        <v>1.241389233513814</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>1.902680024257478</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.370035320046895</v>
+        <v>2.362557465036161</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.00432757966819608</v>
+        <v>0.00234259843910678</v>
       </c>
       <c r="E13">
-        <v>2.221301788274531</v>
+        <v>2.046033734340696</v>
       </c>
       <c r="F13">
-        <v>2.859668077022263</v>
+        <v>2.696559262766669</v>
       </c>
       <c r="G13">
-        <v>3.051125136819337</v>
+        <v>3.215056304081997</v>
       </c>
       <c r="H13">
-        <v>0.1177222076843947</v>
+        <v>0.1175483946773568</v>
       </c>
       <c r="I13">
-        <v>0.003522544245027071</v>
+        <v>0.002980536500465369</v>
       </c>
       <c r="J13">
-        <v>1.461824265006982</v>
+        <v>1.117437707583093</v>
       </c>
       <c r="K13">
-        <v>0.2178251762781214</v>
+        <v>0.2052414728090177</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1046354087360282</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.05480054730421502</v>
       </c>
       <c r="N13">
-        <v>1.078479503165283</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>2.046487698210484</v>
+        <v>1.033549747109305</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>2.03968370168846</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.214302902617703</v>
+        <v>2.229435992332469</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.003211349724034918</v>
+        <v>0.001736933173235755</v>
       </c>
       <c r="E14">
-        <v>2.332812727004779</v>
+        <v>2.15414331772827</v>
       </c>
       <c r="F14">
-        <v>2.728728287480578</v>
+        <v>2.594216867555076</v>
       </c>
       <c r="G14">
-        <v>2.90167579273492</v>
+        <v>3.049580847079028</v>
       </c>
       <c r="H14">
-        <v>0.1664697679378691</v>
+        <v>0.1663739055688893</v>
       </c>
       <c r="I14">
-        <v>0.003916419640664692</v>
+        <v>0.003251966174919296</v>
       </c>
       <c r="J14">
-        <v>1.389800816378909</v>
+        <v>1.107145952920831</v>
       </c>
       <c r="K14">
-        <v>0.2272377460946853</v>
+        <v>0.2128060051346647</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1074276494748716</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.0572113110497714</v>
       </c>
       <c r="N14">
-        <v>0.9311452206665933</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>2.155631919350725</v>
+        <v>0.887497168517541</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>2.122852434886198</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.160645882838196</v>
+        <v>2.182494212006702</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.002921361334276895</v>
+        <v>0.001635633426667837</v>
       </c>
       <c r="E15">
-        <v>2.347331663487083</v>
+        <v>2.171647988848775</v>
       </c>
       <c r="F15">
-        <v>2.676266368362974</v>
+        <v>2.555511210652753</v>
       </c>
       <c r="G15">
-        <v>2.84300480450878</v>
+        <v>2.980079590410867</v>
       </c>
       <c r="H15">
-        <v>0.1787029015318495</v>
+        <v>0.1786448297482224</v>
       </c>
       <c r="I15">
-        <v>0.004201716706394798</v>
+        <v>0.003499326973111394</v>
       </c>
       <c r="J15">
-        <v>1.362172466794163</v>
+        <v>1.112166789648796</v>
       </c>
       <c r="K15">
-        <v>0.2311861225199632</v>
+        <v>0.2157745281619956</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1082228072447204</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.05840750363234992</v>
       </c>
       <c r="N15">
-        <v>0.8910679716920242</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>2.177606607336969</v>
+        <v>0.8490722311990453</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>2.136272211141971</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.030662347413625</v>
+        <v>2.061908826041815</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.002629370056206781</v>
+        <v>0.002014478770927752</v>
       </c>
       <c r="E16">
-        <v>2.197003222241506</v>
+        <v>2.055259306593484</v>
       </c>
       <c r="F16">
-        <v>2.489870330052867</v>
+        <v>2.42557394674273</v>
       </c>
       <c r="G16">
-        <v>2.64161560913567</v>
+        <v>2.721110046698811</v>
       </c>
       <c r="H16">
-        <v>0.1645960841665897</v>
+        <v>0.164692315930111</v>
       </c>
       <c r="I16">
-        <v>0.005045746406461049</v>
+        <v>0.00407611856411183</v>
       </c>
       <c r="J16">
-        <v>1.271674986453576</v>
+        <v>1.170409795290368</v>
       </c>
       <c r="K16">
-        <v>0.2393050925322964</v>
+        <v>0.2214361413580139</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.107704654407188</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.06214795098010217</v>
       </c>
       <c r="N16">
-        <v>0.8391354864553193</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>2.097233091978381</v>
+        <v>0.8085526393316798</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>2.042452585127194</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.012473610292489</v>
+        <v>2.038303730141138</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.002977145468205933</v>
+        <v>0.002654286961607966</v>
       </c>
       <c r="E17">
-        <v>2.022717603844811</v>
+        <v>1.903494497722534</v>
       </c>
       <c r="F17">
-        <v>2.417618914924006</v>
+        <v>2.374959393419005</v>
       </c>
       <c r="G17">
-        <v>2.567676997752812</v>
+        <v>2.618896173657788</v>
       </c>
       <c r="H17">
-        <v>0.1261286983232708</v>
+        <v>0.1262796215993802</v>
       </c>
       <c r="I17">
-        <v>0.005509984441784965</v>
+        <v>0.004403882390326963</v>
       </c>
       <c r="J17">
-        <v>1.241114793693811</v>
+        <v>1.204042041728428</v>
       </c>
       <c r="K17">
-        <v>0.2399746558642661</v>
+        <v>0.2219936149534689</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1064446838153819</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.06338876062359322</v>
       </c>
       <c r="N17">
-        <v>0.8755750131841751</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>1.977960366105322</v>
+        <v>0.8521828156141851</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>1.928968889792827</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.093794718150662</v>
+        <v>2.101877827328963</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.004077741787289924</v>
+        <v>0.003838000039699807</v>
       </c>
       <c r="E18">
-        <v>1.813668426063572</v>
+        <v>1.714214939374017</v>
       </c>
       <c r="F18">
-        <v>2.434505225821255</v>
+        <v>2.396074205579112</v>
       </c>
       <c r="G18">
-        <v>2.594441460907376</v>
+        <v>2.627454249661156</v>
       </c>
       <c r="H18">
-        <v>0.0731539883392287</v>
+        <v>0.07332639256488704</v>
       </c>
       <c r="I18">
-        <v>0.005312078055054847</v>
+        <v>0.004139769906224444</v>
       </c>
       <c r="J18">
-        <v>1.258319539398627</v>
+        <v>1.246230426094684</v>
       </c>
       <c r="K18">
-        <v>0.2381949051345043</v>
+        <v>0.2208509878146385</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1054939757544622</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.06337445007994758</v>
       </c>
       <c r="N18">
-        <v>0.9971276290450817</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>1.814786863787447</v>
+        <v>0.9812001296461688</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>1.785070579428691</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.240993364086876</v>
+        <v>2.223172197289557</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.005886385538335759</v>
+        <v>0.00554768317626575</v>
       </c>
       <c r="E19">
-        <v>1.61104575311937</v>
+        <v>1.527839686077357</v>
       </c>
       <c r="F19">
-        <v>2.518068041444934</v>
+        <v>2.473672702719924</v>
       </c>
       <c r="G19">
-        <v>2.696225856930141</v>
+        <v>2.716007897770623</v>
       </c>
       <c r="H19">
-        <v>0.02832317447769128</v>
+        <v>0.02850512212487644</v>
       </c>
       <c r="I19">
-        <v>0.005149814018778009</v>
+        <v>0.004089958251429771</v>
       </c>
       <c r="J19">
-        <v>1.310513123962323</v>
+        <v>1.301299874124908</v>
       </c>
       <c r="K19">
-        <v>0.240825965990317</v>
+        <v>0.2226536520588935</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1063128835638412</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.06401247674867816</v>
       </c>
       <c r="N19">
-        <v>1.192480267851863</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>1.650011951095848</v>
+        <v>1.185190845577239</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>1.644088231263666</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.589466662128302</v>
+        <v>2.521603152116882</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.009679404101017752</v>
+        <v>0.008580497588560831</v>
       </c>
       <c r="E20">
-        <v>1.415211707583566</v>
+        <v>1.342337845912155</v>
       </c>
       <c r="F20">
-        <v>2.793148664271598</v>
+        <v>2.714853140599189</v>
       </c>
       <c r="G20">
-        <v>3.013696344003307</v>
+        <v>3.032518311678615</v>
       </c>
       <c r="H20">
-        <v>0.00427105761410651</v>
+        <v>0.004386811810498603</v>
       </c>
       <c r="I20">
-        <v>0.004139898342070403</v>
+        <v>0.003458970599351296</v>
       </c>
       <c r="J20">
-        <v>1.463423675672061</v>
+        <v>1.397552724069755</v>
       </c>
       <c r="K20">
-        <v>0.2534055158933777</v>
+        <v>0.2298548648713084</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1095918844549146</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.06683152393299885</v>
       </c>
       <c r="N20">
-        <v>1.584130403324281</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>1.459779972273353</v>
+        <v>1.588142047644425</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>1.490584528905217</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.931642790759895</v>
+        <v>2.823414586830438</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.01143743930987995</v>
+        <v>0.007677978097582638</v>
       </c>
       <c r="E21">
-        <v>1.569643712794601</v>
+        <v>1.451717671572652</v>
       </c>
       <c r="F21">
-        <v>3.198810942394687</v>
+        <v>2.994142796986978</v>
       </c>
       <c r="G21">
-        <v>3.459757348673691</v>
+        <v>3.596881089394287</v>
       </c>
       <c r="H21">
-        <v>0.007422678732258631</v>
+        <v>0.007095912475229282</v>
       </c>
       <c r="I21">
-        <v>0.002962919050314206</v>
+        <v>0.002764525048363886</v>
       </c>
       <c r="J21">
-        <v>1.667740459198512</v>
+        <v>1.275669896940286</v>
       </c>
       <c r="K21">
-        <v>0.2402018482692156</v>
+        <v>0.2157857317513638</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1049020652104988</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.06289335396021034</v>
       </c>
       <c r="N21">
-        <v>1.816121620463491</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>1.503677064416181</v>
+        <v>1.793133729865986</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>1.569897951128453</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.1501508439232</v>
+        <v>3.014924102337716</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.01251776916200953</v>
+        <v>0.006965962463041819</v>
       </c>
       <c r="E22">
-        <v>1.681648728015489</v>
+        <v>1.530322766598388</v>
       </c>
       <c r="F22">
-        <v>3.46569069849707</v>
+        <v>3.169481217314825</v>
       </c>
       <c r="G22">
-        <v>3.752596376412043</v>
+        <v>3.978730676283931</v>
       </c>
       <c r="H22">
-        <v>0.00991896691642152</v>
+        <v>0.009180434915659702</v>
       </c>
       <c r="I22">
-        <v>0.002123937734944903</v>
+        <v>0.00209900201591573</v>
       </c>
       <c r="J22">
-        <v>1.801903241494017</v>
+        <v>1.18536921502195</v>
       </c>
       <c r="K22">
-        <v>0.2315338371213844</v>
+        <v>0.2065983962167355</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1020384197215635</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.0605523965430228</v>
       </c>
       <c r="N22">
-        <v>1.949259483778519</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>1.536939255640434</v>
+        <v>1.90545409585863</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>1.62688604940476</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.040780648338796</v>
+        <v>2.921426969262654</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.01198815691356359</v>
+        <v>0.007598401410255917</v>
       </c>
       <c r="E23">
-        <v>1.618512533390515</v>
+        <v>1.49000657628477</v>
       </c>
       <c r="F23">
-        <v>3.324784191150428</v>
+        <v>3.089029817586606</v>
       </c>
       <c r="G23">
-        <v>3.598212048526079</v>
+        <v>3.762521016917049</v>
       </c>
       <c r="H23">
-        <v>0.00855131449486074</v>
+        <v>0.008064171911628448</v>
       </c>
       <c r="I23">
-        <v>0.00222524968817428</v>
+        <v>0.002051499437314419</v>
       </c>
       <c r="J23">
-        <v>1.731262979193446</v>
+        <v>1.264735906163082</v>
       </c>
       <c r="K23">
-        <v>0.2369611865790588</v>
+        <v>0.2121841818085413</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.103724302842938</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.06212681596910574</v>
       </c>
       <c r="N23">
-        <v>1.875600412513052</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>1.513862218942052</v>
+        <v>1.846697600742459</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>1.58951784926424</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.614512217515767</v>
+        <v>2.542804335093933</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.01001913079321426</v>
+        <v>0.008901653241903063</v>
       </c>
       <c r="E24">
-        <v>1.390944727459456</v>
+        <v>1.319836386322081</v>
       </c>
       <c r="F24">
-        <v>2.802438652264357</v>
+        <v>2.723891856141336</v>
       </c>
       <c r="G24">
-        <v>3.025463132461965</v>
+        <v>3.041743143901073</v>
       </c>
       <c r="H24">
-        <v>0.004253388373651856</v>
+        <v>0.004370419572173823</v>
       </c>
       <c r="I24">
-        <v>0.003582493230377182</v>
+        <v>0.002814981197901467</v>
       </c>
       <c r="J24">
-        <v>1.469577112541145</v>
+        <v>1.405776666774642</v>
       </c>
       <c r="K24">
-        <v>0.2569494649446398</v>
+        <v>0.2324211185899667</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1105310583941641</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.06782718660801468</v>
       </c>
       <c r="N24">
-        <v>1.603028430743848</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>1.436564988047749</v>
+        <v>1.608660964019094</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>1.469028484728895</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.154028074300413</v>
+        <v>2.10877608937102</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.008096653188555791</v>
+        <v>0.00771943524814489</v>
       </c>
       <c r="E25">
-        <v>1.156014213484653</v>
+        <v>1.09313878898493</v>
       </c>
       <c r="F25">
-        <v>2.26437298012587</v>
+        <v>2.222057892775254</v>
       </c>
       <c r="G25">
-        <v>2.435212076151657</v>
+        <v>2.441221020560135</v>
       </c>
       <c r="H25">
-        <v>0.001237828488610537</v>
+        <v>0.001485695258592878</v>
       </c>
       <c r="I25">
-        <v>0.005948048513729987</v>
+        <v>0.004367644807365068</v>
       </c>
       <c r="J25">
-        <v>1.201052409683768</v>
+        <v>1.198887560575542</v>
       </c>
       <c r="K25">
-        <v>0.2801080199790116</v>
+        <v>0.2539859987373498</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1186475420929529</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.07485248667193867</v>
       </c>
       <c r="N25">
-        <v>1.312830391098004</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>1.356117508671232</v>
+        <v>1.316499661547283</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>1.361433286788611</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
